--- a/public/publications.xlsx
+++ b/public/publications.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="610">
   <si>
     <t>doi</t>
   </si>
@@ -22,6 +22,9 @@
     <t>url</t>
   </si>
   <si>
+    <t>license</t>
+  </si>
+  <si>
     <t>formatted</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>https://www.nature.com/articles/s41598-018-21924-7</t>
   </si>
   <si>
+    <t>cc-by</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zheng, W., Jin, X., Azuma, Y., Wang, Q., Miyata, K., &amp; Xu, X. (2018). The most basal ankylosaurine dinosaur from the Albian–Cenomanian of China, with implications for the evolution of the tail club. Scientific Reports, 8(1). doi:10.1038/s41598-018-21924-7
 </t>
   </si>
@@ -81,6 +87,51 @@
     <t>CMN 2759</t>
   </si>
   <si>
+    <t>10.1016/j.envsci.2018.06.020</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1462901118303988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hart, R. J. (2018). Salmon, science, and conservation: Organizational power and the listing and recovery planning of an endangered species. Environmental Science &amp; Policy, 88, 124–133. doi:10.1016/j.envsci.2018.06.020
+</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-07-17</t>
+  </si>
+  <si>
+    <t>10.1016/j.jaa.2018.05.004</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0278416517301721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norman, L. E. Y. (2018). Ethnohistoric documents as analogical tools: A case study from northwest Alaska. Journal of Anthropological Archaeology, 51, 1–15. doi:10.1016/j.jaa.2018.05.004
+</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-05-27</t>
+  </si>
+  <si>
+    <t>10.1016/j.jaa.2018.06.004</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0278416518300011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losey, R. J., Nomokonova, T., Gusev, A. V., Bachura, O. P., Fedorova, N. V., Kosintsev, P. A., &amp; Sablin, M. V. (2018). Dogs were domesticated in the Arctic: Culling practices and dog sledding at Ust’-Polui. Journal of Anthropological Archaeology, 51, 113–126. doi:10.1016/j.jaa.2018.06.004
+</t>
+  </si>
+  <si>
+    <t>2018-06-26</t>
+  </si>
+  <si>
     <t>10.1016/j.envpol.2018.04.008</t>
   </si>
   <si>
@@ -97,6 +148,119 @@
     <t>2018-04-15</t>
   </si>
   <si>
+    <t>10.5334/oq.40</t>
+  </si>
+  <si>
+    <t>https://www.openquaternary.com/articles/10.5334/oq.40/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welker, M., Billings, S., Burns, J., &amp; McClure, S. (2018). Roads and Military Provisioning During the French and Indian War
+                        (1754–1763): The Faunal Remains of Fort Shirley, PA in Context. Open Quaternary, 4(1), 5. doi:10.5334/oq.40
+</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>2018-07-22</t>
+  </si>
+  <si>
+    <t>10.15560/14.4.579</t>
+  </si>
+  <si>
+    <t>https://checklist.pensoft.net/article/25898/download/pdf/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forsyth, R., &amp; Nicolai, A. (2018). Guppya sterkii (Dall, 1888) (Gastropoda, Eupulmonata, Euconulidae) in eastern Ontario, Canada. Check List, 14(4), 579–583. doi:10.15560/14.4.579
+</t>
+  </si>
+  <si>
+    <t>2018-07-13</t>
+  </si>
+  <si>
+    <t>10.1093/jhered/esy034</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jhered/advance-article/doi/10.1093/jhered/esy034/5053756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natola, L., &amp; Burg, T. M. (2018). Population genetics and speciation of yellow-bellied, red-naped, and red-breasted sapsuckers (Sphyrapicus varius, S. nuchalis, and S. ruber). Journal of Heredity. doi:10.1093/jhered/esy034
+</t>
+  </si>
+  <si>
+    <t>10.7717/peerj.5212</t>
+  </si>
+  <si>
+    <t>https://peerj.com/articles/5212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor, M. P. (2018). Xenoposeidon is the earliest known rebbachisaurid sauropod dinosaur. PeerJ, 6, e5212. doi:10.7717/peerj.5212
+</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>2018-07-12</t>
+  </si>
+  <si>
+    <t>NMC 50844</t>
+  </si>
+  <si>
+    <t>10.1111/pala.12379</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1111/pala.12379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevrinais, M., Johanson, Z., Trinajstic, K., Long, J., Morel, C., Renaud, C. B., &amp; Cloutier, R. (2018). Evolution of vertebrate postcranial complexity: axial skeleton regionalization and paired appendages in a Devonian jawless fish. Palaeontology. doi:10.1111/pala.12379
+</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>2018-07-10</t>
+  </si>
+  <si>
+    <t>10.7717/peerj.5194</t>
+  </si>
+  <si>
+    <t>https://peerj.com/articles/5194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbell, J. A., Ryan, M. J., Schröder-Adams, C. J., Evans, D. C., &amp; Holmes, R. B. (2018). New insights into chasmosaurine (Dinosauria: Ceratopsidae) skulls from the Upper Cretaceous (Campanian) of Alberta, and an update on the distribution of accessory frill fenestrae in Chasmosaurinae. PeerJ, 6, e5194. doi:10.7717/peerj.5194
+</t>
+  </si>
+  <si>
+    <t>2018-07-03</t>
+  </si>
+  <si>
+    <t>CMN 1254, CMN 2280, CMN 34829, CMN 34832, CMN 41357, CMN 57081, CMN 8798, CMN 8800, CMN 8801, CMN 8802, CMN 8803, CMN 8882</t>
+  </si>
+  <si>
+    <t>http://dinodata.de/dinothek/pdf_n/2018/001_peerj-5194_dd.pdf</t>
+  </si>
+  <si>
+    <t>2018-07-19</t>
+  </si>
+  <si>
+    <t>10.1093/conphys/coy037</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/conphys/article/6/1/coy037/5051675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acker, M., Mastromonaco, G., &amp; Schulte-Hostedde, A. I. (2018). The effects of body region, season and external arsenic application on hair cortisol concentration. Conservation Physiology, 6(1). doi:10.1093/conphys/coy037
+</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>2018-07-15</t>
+  </si>
+  <si>
     <t>10.1016/j.envsci.2018.04.007</t>
   </si>
   <si>
@@ -113,6 +277,200 @@
     <t>2018-04-21</t>
   </si>
   <si>
+    <t>10.1017/jpa.2018.19</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/journal-of-paleontology/article/combined-mesowear-analysis-of-mexican-bison-antiquus-shows-a-generalist-diet-with-geographical-variation/7D925307AD1E888FA1EDCCEF367C70F0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Díaz-Sibaja, R., Jiménez-Hidalgo, E., Ponce-Saavedra, J., &amp; García-Zepeda, M. L. (2018). A combined mesowear analysis of Mexican Bison antiquus shows a generalist diet with geographical variation. Journal of Paleontology, 1–10. doi:10.1017/jpa.2018.19
+</t>
+  </si>
+  <si>
+    <t>2018-06-19</t>
+  </si>
+  <si>
+    <t>10.1017/RDC.2018.50</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/radiocarbon/article/an-assessment-of-marine-reservoir-corrections-for-radiocarbon-dates-on-walrus-from-the-foxe-basin-region-of-arctic-canada/9949D8456A2F25FC5C45AC9F533CEF83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyke, A. S., Savelle, J. M., Szpak, P., Southon, J. R., Howse, L., Desrosiers, P. M., &amp; Kotar, K. (2018). An Assessment of Marine Reservoir Corrections for Radiocarbon Dates on Walrus from the Foxe Basin region of Arctic Canada. Radiocarbon, 1–15. doi:10.1017/rdc.2018.50
+</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2018-06-16</t>
+  </si>
+  <si>
+    <t>10.1007/s10021-018-0267-8</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10021-018-0267-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heindel, R. C., Governali, F. C., Spickard, A. M., &amp; Virginia, R. A. (2018). The Role of Biological Soil Crusts in Nitrogen Cycling and Soil Stabilization in Kangerlussuaq, West Greenland. Ecosystems. doi:10.1007/s10021-018-0267-8
+</t>
+  </si>
+  <si>
+    <t>2018-06-04</t>
+  </si>
+  <si>
+    <t>2018-06-09</t>
+  </si>
+  <si>
+    <t>10.2138/am-2018-6195</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/view/j/ammin.2018.103.issue-6/am-2018-6195/am-2018-6195.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turner, D. J., Rivard, B., &amp; Groat, L. A. (2018). Visible and short-wave infrared reflectance spectroscopy of selected REE-bearing silicate minerals. American Mineralogist, 103(6), 927–943. doi:10.2138/am-2018-6195
+</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2018-06-02</t>
+  </si>
+  <si>
+    <t>10.3368/er.36.2.116</t>
+  </si>
+  <si>
+    <t>http://er.uwpress.org/content/36/2/116.abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapai, S. B., McMullin, R. T., Maloles, J. R., Turgeon, M.-H., &amp; Newmaster, S. G. (2018). An Ecological Restoration Approach to Biological Inventories: A Case Study in the Collection of a Vegetation Biolayer That Will Inform Restoration Planning. Ecological Restoration, 36(2), 116–126. doi:10.3368/er.36.2.116
+</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-05-22</t>
+  </si>
+  <si>
+    <t>10.1016/j.quaint.2018.05.037</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1040618217315367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponomarenko, D., &amp; Ponomarenko, E. (2018). Describing krotovinas: A contribution to methodology and interpretation. Quaternary International. doi:10.1016/j.quaint.2018.05.037
+</t>
+  </si>
+  <si>
+    <t>10.3099/MCZ44.1</t>
+  </si>
+  <si>
+    <t>http://www.bioone.org/doi/abs/10.3099/MCZ44.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downs,, J. P., Daeschler,, E. B., Long, A. M., &amp; Shubin, N. H. (2018). Eusthenopteron jenkinsi sp. nov. (Sarcopterygii, Tristichopteridae) from the Upper Devonian of Nunavut, Canada, and a Review of Eusthenopteron Taxonomy. Breviora, 562(1), 1–24. doi:10.3099/mcz44.1
+</t>
+  </si>
+  <si>
+    <t>10.1649/0010-065X-72.2.301</t>
+  </si>
+  <si>
+    <t>http://www.bioone.org/doi/abs/10.1649/0010-065X-72.2.301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson, R. S. (2018). Stockwellius fasciatus Anderson, a New Genus and New Species of Litosomina (Coleoptera: Curculionidae: Dryophthorinae: Rhynchophorini) from Panama. The Coleopterists Bulletin, 72(2), 301–304. doi:10.1649/0010-065x-72.2.301
+</t>
+  </si>
+  <si>
+    <t>2018-07-02</t>
+  </si>
+  <si>
+    <t>10.1649/0010-065X-72.2.305</t>
+  </si>
+  <si>
+    <t>http://www.bioone.org/doi/abs/10.1649/0010-065X-72.2.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skelley, P. E., &amp; Powell, G. S. (2018). Necessary Nomenclatural Corrections for Mycophtorus Lacordaire, 1842 and Neomycotretus Deelder, 1942, with the Establishment of Myceporthus Skelley and Powell, New Genus (Coleoptera: Erotylidae: Tritomini). The Coleopterists Bulletin, 72(2), 305–313. doi:10.1649/0010-065x-72.2.305
+</t>
+  </si>
+  <si>
+    <t>10.1088/1757-899X/364/1/012056</t>
+  </si>
+  <si>
+    <t>http://iopscience.iop.org/article/10.1088/1757-899X/364/1/012056/pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schalm, O., Anaf, W., Callier, J., &amp; Leyva Pernia, D. (2018). New generation monitoring devices for heritage guardians to detect multiple events and hazards. IOP Conference Series: Materials Science and Engineering, 364, 012056. doi:10.1088/1757-899x/364/1/012056
+</t>
+  </si>
+  <si>
+    <t>2018-06-24</t>
+  </si>
+  <si>
+    <t>10.1007/s10646-018-1945-1</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10646-018-1945-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim Tiam, S., Lavoie, I., Doose, C., Hamilton, P. B., &amp; Fortin, C. (2018). Morphological, physiological and molecular responses of Nitzschia palea under cadmium stress. Ecotoxicology. doi:10.1007/s10646-018-1945-1
+</t>
+  </si>
+  <si>
+    <t>2018-05-24</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>10.1098/rspb.2018.0462</t>
+  </si>
+  <si>
+    <t>http://rspb.royalsocietypublishing.org/content/285/1878/20180462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muschick, M., Russell, J. M., Jemmi, E., Walker, J., Stewart, K. M., Murray, A. M., … Seehausen, O. (2018). Arrival order and release from competition does not explain why haplochromine cichlids radiated in Lake Victoria. Proceedings of the Royal Society B: Biological Sciences, 285(1878), 20180462. doi:10.1098/rspb.2018.0462
+</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>0000-0002-7782-7503, 0000-0001-9648-2902, 0000-0003-2349-0826, 0000-0002-0817-2806, 0000-0003-4630-6788, 0000-0001-6598-1434</t>
+  </si>
+  <si>
+    <t>10.1007/s00300-018-2328-z</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00300-018-2328-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meyer Ottesen, C. A., Hop, H., Falk-Petersen, S., &amp; Christiansen, J. S. (2018). Reproduction and sexual dimorphism of daubed shanny (Teleostei: Leptoclinus maculatus) in Svalbard waters. Polar Biology. doi:10.1007/s00300-018-2328-z
+</t>
+  </si>
+  <si>
+    <t>2018-05-10</t>
+  </si>
+  <si>
+    <t>10.1002/ece3.4052</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/pdf/10.1002/ece3.4052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraser, D., Haupt, R. J., &amp; Barr, W. A. (2018). Phylogenetic signal in tooth wear dietary niche proxies. Ecology and Evolution. doi:10.1002/ece3.4052
+</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t>0000-0002-0228-2617</t>
+  </si>
+  <si>
     <t>10.1007/s10933-018-0027-y</t>
   </si>
   <si>
@@ -143,6 +501,39 @@
   </si>
   <si>
     <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>10.1016/j.palaeo.2018.05.018</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0031018218300610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borgaonkar, H. P., Gandhi, N., Ram, S., &amp; Krishnan, R. (2018). Tree-ring reconstruction of late summer temperatures in northern Sikkim (eastern Himalayas). Palaeogeography, Palaeoclimatology, Palaeoecology. doi:10.1016/j.palaeo.2018.05.018
+</t>
+  </si>
+  <si>
+    <t>10.1016/j.marpetgeo.2018.05.018</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0264817218302150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powell, J., Schneider, D. A., Desrochers, A., Flowers, R. M., Metcalf, J., Gaidies, F., &amp; Stockli, D. F. (2018). Low-temperature thermochronology of Anticosti Island: A case study on the application of conodont (U-Th)/He thermochronology to carbonate basin analysis. Marine and Petroleum Geology. doi:10.1016/j.marpetgeo.2018.05.018
+</t>
+  </si>
+  <si>
+    <t>2018-06-05</t>
+  </si>
+  <si>
+    <t>10.1134/S0032945218030153</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1134/S0032945218030153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zareian, H., Esmaeili, H. R., Gholamhosseini, A., Alwan, N., &amp; Coad, B. W. (2018). Comments on the Mond Scraper, Capoeta mandica (Teleostei: Cyprinidae): Re-Description, Molecular Systematics and Distribution Modeling. Journal of Ichthyology, 58(3), 283–295. doi:10.1134/s0032945218030153
+</t>
   </si>
   <si>
     <t>10.3897/zookeys.754.22884</t>
@@ -346,6 +737,16 @@
     <t>2018-03-21</t>
   </si>
   <si>
+    <t>10.1371/journal.pone.0192825</t>
+  </si>
+  <si>
+    <t>cc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleuy, O. A., Ruckstuhl, K., Hoberg, E. P., Veitch, A., Simmons, N., &amp; Kutz, S. J. (2018). Diversity of gastrointestinal helminths in Dall’s sheep and the negative association of the abomasal nematode, Marshallagia marshalli, with fitness indicators. PLOS ONE, 13(3), e0192825. doi:10.1371/journal.pone.0192825
+</t>
+  </si>
+  <si>
     <t>10.1111/jvs.12627</t>
   </si>
   <si>
@@ -359,6 +760,19 @@
     <t>0000-0002-1635-1249</t>
   </si>
   <si>
+    <t>10.1080/02724634.2018.1431922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallon, J. C., &amp; Brinkman, D. B. (2018). Basilemys morrinensis, a new species of nanhsiungchelyid turtle from the Horseshoe Canyon Formation (Upper Cretaceous) of Alberta, Canada. Journal of Vertebrate Paleontology, 38(2), e1431922. doi:10.1080/02724634.2018.1431922
+</t>
+  </si>
+  <si>
+    <t>2018-03-04</t>
+  </si>
+  <si>
+    <t>CMN 1145, CMN 376, CMN 57059, CMN 8516, CMN 8890</t>
+  </si>
+  <si>
     <t>10.1093/zoolinnean/zlx101</t>
   </si>
   <si>
@@ -378,6 +792,16 @@
     <t>CMNC 2000-0019, CMNC 2000-0033, CMNC 2000-0035</t>
   </si>
   <si>
+    <t>10.1088/1748-9326/aaac0c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gennaretti, F., Boucher, E., Nicault, A., Gea-Izquierdo, G., Arseneault, D., Berninger, F., … Guiot, J. (2018). Underestimation of the Tambora effects in North American taiga ecosystems. Environmental Research Letters, 13(3), 034017. doi:10.1088/1748-9326/aaac0c
+</t>
+  </si>
+  <si>
+    <t>2018-03-01</t>
+  </si>
+  <si>
     <t>10.3099/MCZ161-09.1</t>
   </si>
   <si>
@@ -457,10 +881,23 @@
 </t>
   </si>
   <si>
+    <t>10.1017/jpa.2017.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiba, K., Ryan, M. J., Fanti, F., Loewen, M. A., &amp; Evans, D. C. (2017). New material and systematic re-evaluation of Medusaceratops lokii (Dinosauria, Ceratopsidae) from the Judith River Formation (Campanian, Montana). Journal of Paleontology, 92(02), 272–288. doi:10.1017/jpa.2017.62
+</t>
+  </si>
+  <si>
+    <t>CMN 344, CMN 971</t>
+  </si>
+  <si>
     <t>10.3832/ifor2400-011</t>
   </si>
   <si>
     <t>http://www.sisef.it/iforest/contents/?id=ifor2400-011</t>
+  </si>
+  <si>
+    <t>cc-by-nc</t>
   </si>
   <si>
     <t xml:space="preserve">Tiebel, K., Huth, F., &amp; Wagner, S. (2018). Soil seed banks of pioneer tree species in European temperate forests: a review. iForest - Biogeosciences and Forestry, 11(1), 48–57. doi:10.3832/ifor2400-011
@@ -555,9 +992,6 @@
 </t>
   </si>
   <si>
-    <t>2018-03-01</t>
-  </si>
-  <si>
     <t>CMNAV 10868, CMNAV 39940, CMNAV 84658</t>
   </si>
   <si>
@@ -678,6 +1112,13 @@
 </t>
   </si>
   <si>
+    <t>10.1016/j.cretres.2017.05.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kubo, T., Shibata, M., Naksri, W., Jintasakul, P., &amp; Azuma, Y. (2018). The earliest record of Asian Eusuchia from the Lower Cretaceous Khok Kruat Formation of northeastern Thailand. Cretaceous Research, 82, 21–28. doi:10.1016/j.cretres.2017.05.021
+</t>
+  </si>
+  <si>
     <t>10.3897/afrinvertebr.59.22269</t>
   </si>
   <si>
@@ -939,6 +1380,9 @@
     <t>http://www.tandfonline.com/doi/abs/10.1080/23802359.2017.1407698</t>
   </si>
   <si>
+    <t>implied-oa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hafeez, M. A., &amp; Barta, J. R. (2017). The complete mitochondrial genome sequences of two Isospora species (Eimeriidae, Eucoccidiorida, Coccidiasina, Apicomplexa) causing coccidiosis in superb glossy starlings, Lamprotornis superbus (Aves: Sturnidae). Mitochondrial DNA Part B, 2(2), 895–896. doi:10.1080/23802359.2017.1407698
 </t>
   </si>
@@ -1046,6 +1490,9 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S1040618217310169</t>
+  </si>
+  <si>
+    <t>cc-by-nc-nd</t>
   </si>
   <si>
     <t xml:space="preserve">Konidaris, G. E., Athanassiou, A., Tourloukis, V., Thompson, N., Giusti, D., Panagopoulou, E., &amp; Harvati, K. (2017). The skeleton of a straight-tusked elephant ( Palaeoloxodon antiquus ) and other large mammals from the Middle Pleistocene butchering locality Marathousa 1 (Megalopolis Basin, Greece): preliminary results. Quaternary International. doi:10.1016/j.quaint.2017.12.001
@@ -1137,9 +1584,6 @@
 </t>
   </si>
   <si>
-    <t>10.1017/jpa.2017.62</t>
-  </si>
-  <si>
     <t>https://www.cambridge.org/core/journals/journal-of-paleontology/article/new-material-and-systematic-reevaluation-of-medusaceratops-lokii-dinosauria-ceratopsidae-from-the-judith-river-formation-campanian-montana/852C434AB7EC109D5654742EAB15FDEC</t>
   </si>
   <si>
@@ -1147,9 +1591,6 @@
 </t>
   </si>
   <si>
-    <t>CMN 344, CMN 971</t>
-  </si>
-  <si>
     <t>10.1007/s00436-017-5680-y</t>
   </si>
   <si>
@@ -1317,9 +1758,6 @@
 </t>
   </si>
   <si>
-    <t>NMC 50844</t>
-  </si>
-  <si>
     <t>10.7287/peerj.preprints.26730v1</t>
   </si>
   <si>
@@ -1359,6 +1797,61 @@
     <t>https://swfsc.noaa.gov/publications/TM/SWFSC/NOAA-TM-NMFS-SWFSC-594.pdf</t>
   </si>
   <si>
+    <t>10.18435/vamp29338</t>
+  </si>
+  <si>
+    <t>https://journals.library.ualberta.ca/vamp/index.php/VAMP/article/viewFile/29338/21353#page=9</t>
+  </si>
+  <si>
+    <t>CMN 10015, CMN 8167, CMN 8168, CMN 8889, CMN 8920</t>
+  </si>
+  <si>
+    <t>https://journals.library.ualberta.ca/vamp/index.php/VAMP/article/viewFile/29338/21353</t>
+  </si>
+  <si>
+    <t>10.18435/vamp29283</t>
+  </si>
+  <si>
+    <t>https://journals.library.ualberta.ca/vamp/index.php/VAMP/article/download/29283/21355</t>
+  </si>
+  <si>
+    <t>CMN 12068, CMN 12069, CMN 8632, CMN 930</t>
+  </si>
+  <si>
+    <t>10.3119/17-11</t>
+  </si>
+  <si>
+    <t>http://www.rhodorajournal.org/doi/abs/10.3119/17-11</t>
+  </si>
+  <si>
+    <t>10.1007/s42330-018-0014-3</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s42330-018-0014-3</t>
+  </si>
+  <si>
+    <t>2018-07-04</t>
+  </si>
+  <si>
+    <t>10.7287/peerj.preprints.27021v1</t>
+  </si>
+  <si>
+    <t>https://peerj.com/preprints/27021.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snively, E., O’Brien, H., Henderson, D. M., Mallison, H., Surring, L. A., Burns, M. E., … Cotton, J. R. (2018). Lower rotational inertia and larger leg muscles indicate more rapid turns in tyrannosaurids than in other large theropods. doi:10.7287/peerj.preprints.27021v1
+</t>
+  </si>
+  <si>
+    <t>CMN 8506</t>
+  </si>
+  <si>
+    <t>10.3749/canmin.1800005</t>
+  </si>
+  <si>
+    <t>https://pubs.geoscienceworld.org/canmin/article-abstract/56/3/265/537244</t>
+  </si>
+  <si>
     <t>https://pdfs.semanticscholar.org/f311/726ca33356367f1c4f49e248bc2469731c90.pdf</t>
   </si>
   <si>
@@ -1450,6 +1943,45 @@
   </si>
   <si>
     <t>https://search.informit.com.au/fullText;dn=511225590446696;res=IELAPA</t>
+  </si>
+  <si>
+    <t>https://www.ruor.uottawa.ca/bitstream/10393/37609/1/Byrne_Lisa_2018_thesis.pdf</t>
+  </si>
+  <si>
+    <t>https://digitalcommons.unl.edu/cgi/viewcontent.cgi?article=2134&amp;context=insectamundi</t>
+  </si>
+  <si>
+    <t>2018-05-20</t>
+  </si>
+  <si>
+    <t>http://www.citt.gc.ca/en/node/8271</t>
+  </si>
+  <si>
+    <t>http://books.google.ca/books?hl=en&amp;lr=lang_en&amp;id=xXRgDwAAQBAJ&amp;oi=fnd&amp;pg=PA56&amp;dq=%22Canadian+Museum+of+Nature%22&amp;ots=v5nkYbiBNp&amp;sig=veeJ191ffZ2IkDY8O3BZhxPe32Y</t>
+  </si>
+  <si>
+    <t>https://digitalcommons.unl.edu/cgi/viewcontent.cgi?article=1161&amp;context=entomologypapers</t>
+  </si>
+  <si>
+    <t>https://www.ajhtl.com/uploads/7/1/6/3/7163688/article_50_vol_7_2__2018.pdf</t>
+  </si>
+  <si>
+    <t>2018-07-08</t>
+  </si>
+  <si>
+    <t>http://www.citt-tcce.gc.ca/en/node/8334</t>
+  </si>
+  <si>
+    <t>https://www.sararegistry.gc.ca/default.asp?lang=En&amp;n=9CA194D5-1&amp;offset=3&amp;toc=show</t>
+  </si>
+  <si>
+    <t>https://edoc.hu-berlin.de/bitstream/handle/18452/20045/bordonaro.pdf?sequence=1</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1807.03014</t>
+  </si>
+  <si>
+    <t>0000-0001-9358-1219, 0000-0002-8591-0382</t>
   </si>
 </sst>
 </file>
@@ -1781,13 +2313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1815,18 +2347,18 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -1835,159 +2367,165 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
         <v>29</v>
       </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
         <v>38</v>
       </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" t="s">
         <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1995,1518 +2533,1560 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
+      <c r="D15" t="s">
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
         <v>77</v>
       </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
         <v>90</v>
       </c>
-      <c r="G19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" t="s">
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" t="s">
-        <v>110</v>
-      </c>
       <c r="H23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>114</v>
       </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
       <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
         <v>115</v>
       </c>
-      <c r="G24" t="s">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>118</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>119</v>
       </c>
-      <c r="F25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="B26" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
         <v>121</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" t="s">
         <v>122</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>123</v>
       </c>
-      <c r="F26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>125</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" t="s">
+      <c r="H27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="F27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
         <v>131</v>
       </c>
-      <c r="C29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="J30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" t="s">
+        <v>195</v>
+      </c>
+      <c r="J43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" t="s">
+        <v>211</v>
+      </c>
+      <c r="H47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>215</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50" t="s">
         <v>136</v>
       </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" t="s">
+        <v>228</v>
+      </c>
+      <c r="H51" t="s">
         <v>151</v>
       </c>
-      <c r="C34" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F37" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" t="s">
-        <v>166</v>
-      </c>
-      <c r="H37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="J51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" t="s">
+        <v>237</v>
+      </c>
+      <c r="H53" t="s">
+        <v>238</v>
+      </c>
+      <c r="I53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" t="s">
         <v>18</v>
       </c>
-      <c r="F38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" t="s">
+        <v>246</v>
+      </c>
+      <c r="H56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>246</v>
+      </c>
+      <c r="H58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59" t="s">
+        <v>246</v>
+      </c>
+      <c r="H59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="G60" t="s">
+        <v>246</v>
+      </c>
+      <c r="H60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" t="s">
+        <v>268</v>
+      </c>
+      <c r="G62" t="s">
+        <v>246</v>
+      </c>
+      <c r="H62" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C63" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" t="s">
+        <v>274</v>
+      </c>
+      <c r="H63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" t="s">
+        <v>278</v>
+      </c>
+      <c r="G64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" t="s">
+        <v>280</v>
+      </c>
+      <c r="D65" t="s">
+        <v>281</v>
+      </c>
+      <c r="G65" t="s">
+        <v>282</v>
+      </c>
+      <c r="H65" t="s">
+        <v>283</v>
+      </c>
+      <c r="J65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" t="s">
+        <v>287</v>
+      </c>
+      <c r="G66" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" t="s">
+        <v>291</v>
+      </c>
+      <c r="G67" t="s">
+        <v>292</v>
+      </c>
+      <c r="H67" t="s">
+        <v>293</v>
+      </c>
+      <c r="I67" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" t="s">
+        <v>297</v>
+      </c>
+      <c r="G68" t="s">
+        <v>298</v>
+      </c>
+      <c r="H68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69" t="s">
         <v>18</v>
       </c>
-      <c r="F39" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" t="s">
-        <v>185</v>
-      </c>
-      <c r="G41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" t="s">
-        <v>185</v>
-      </c>
-      <c r="G42" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" t="s">
-        <v>147</v>
-      </c>
-      <c r="H44" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D69" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" t="s">
+        <v>242</v>
+      </c>
+      <c r="I69" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" t="s">
+        <v>304</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>305</v>
+      </c>
+      <c r="H70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" t="s">
         <v>18</v>
       </c>
-      <c r="F45" t="s">
-        <v>185</v>
-      </c>
-      <c r="G45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" t="s">
-        <v>185</v>
-      </c>
-      <c r="G46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B47" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" t="s">
-        <v>207</v>
-      </c>
-      <c r="G47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" t="s">
-        <v>207</v>
-      </c>
-      <c r="G48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>213</v>
-      </c>
-      <c r="G49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" t="s">
-        <v>222</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" t="s">
-        <v>229</v>
-      </c>
-      <c r="C53" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" t="s">
-        <v>231</v>
-      </c>
-      <c r="G53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>233</v>
-      </c>
-      <c r="B54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>237</v>
-      </c>
-      <c r="B55" t="s">
-        <v>238</v>
-      </c>
-      <c r="C55" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" t="s">
-        <v>240</v>
-      </c>
-      <c r="G55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" t="s">
-        <v>243</v>
-      </c>
-      <c r="F56" t="s">
-        <v>240</v>
-      </c>
-      <c r="G56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>244</v>
-      </c>
-      <c r="B57" t="s">
-        <v>245</v>
-      </c>
-      <c r="C57" t="s">
-        <v>246</v>
-      </c>
-      <c r="F57" t="s">
-        <v>240</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>247</v>
-      </c>
-      <c r="B58" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" t="s">
-        <v>249</v>
-      </c>
-      <c r="F58" t="s">
-        <v>240</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" t="s">
-        <v>252</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59">
-        <v>2018</v>
-      </c>
-      <c r="G59" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>254</v>
-      </c>
-      <c r="B60" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" t="s">
-        <v>256</v>
-      </c>
-      <c r="F60">
-        <v>2018</v>
-      </c>
-      <c r="G60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>257</v>
-      </c>
-      <c r="B61" t="s">
-        <v>258</v>
-      </c>
-      <c r="C61" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61">
-        <v>2018</v>
-      </c>
-      <c r="G61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>260</v>
-      </c>
-      <c r="B62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C62" t="s">
-        <v>262</v>
-      </c>
-      <c r="F62">
-        <v>2018</v>
-      </c>
-      <c r="G62" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>264</v>
-      </c>
-      <c r="B63" t="s">
-        <v>265</v>
-      </c>
-      <c r="C63" t="s">
-        <v>266</v>
-      </c>
-      <c r="E63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63">
-        <v>2018</v>
-      </c>
-      <c r="G63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64" t="s">
-        <v>268</v>
-      </c>
-      <c r="C64" t="s">
-        <v>269</v>
-      </c>
-      <c r="F64">
-        <v>2018</v>
-      </c>
-      <c r="G64" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F65">
-        <v>2018</v>
-      </c>
-      <c r="G65" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>274</v>
-      </c>
-      <c r="B66" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66" t="s">
-        <v>276</v>
-      </c>
-      <c r="F66">
-        <v>2018</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>277</v>
-      </c>
-      <c r="B67" t="s">
-        <v>278</v>
-      </c>
-      <c r="C67" t="s">
-        <v>279</v>
-      </c>
-      <c r="F67" t="s">
-        <v>280</v>
-      </c>
-      <c r="G67" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>282</v>
-      </c>
-      <c r="B68" t="s">
-        <v>283</v>
-      </c>
-      <c r="C68" t="s">
-        <v>284</v>
-      </c>
-      <c r="F68" t="s">
-        <v>285</v>
-      </c>
-      <c r="G68" t="s">
-        <v>286</v>
-      </c>
-      <c r="H68" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>288</v>
-      </c>
-      <c r="B69" t="s">
-        <v>289</v>
-      </c>
-      <c r="C69" t="s">
-        <v>290</v>
-      </c>
-      <c r="F69" t="s">
-        <v>291</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="D71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>309</v>
+      </c>
+      <c r="H71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72" t="s">
+        <v>314</v>
+      </c>
+      <c r="H72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" t="s">
+        <v>318</v>
+      </c>
+      <c r="G73" t="s">
+        <v>319</v>
+      </c>
+      <c r="H73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" t="s">
+        <v>323</v>
+      </c>
+      <c r="G74" t="s">
+        <v>319</v>
+      </c>
+      <c r="H74" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>293</v>
-      </c>
-      <c r="B70" t="s">
-        <v>294</v>
-      </c>
-      <c r="C70" t="s">
-        <v>295</v>
-      </c>
-      <c r="D70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" t="s">
-        <v>296</v>
-      </c>
-      <c r="G70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>297</v>
-      </c>
-      <c r="B71" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" t="s">
-        <v>299</v>
-      </c>
-      <c r="F71" t="s">
-        <v>300</v>
-      </c>
-      <c r="G71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>301</v>
-      </c>
-      <c r="B72" t="s">
-        <v>302</v>
-      </c>
-      <c r="C72" t="s">
-        <v>303</v>
-      </c>
-      <c r="F72" t="s">
-        <v>304</v>
-      </c>
-      <c r="G72" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" t="s">
-        <v>307</v>
-      </c>
-      <c r="C73" t="s">
-        <v>308</v>
-      </c>
-      <c r="D73" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" t="s">
-        <v>309</v>
-      </c>
-      <c r="G73" t="s">
-        <v>310</v>
-      </c>
-      <c r="I73" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>312</v>
-      </c>
-      <c r="B74" t="s">
-        <v>313</v>
-      </c>
-      <c r="C74" t="s">
-        <v>314</v>
-      </c>
-      <c r="F74" t="s">
-        <v>309</v>
-      </c>
-      <c r="G74" t="s">
-        <v>305</v>
-      </c>
-      <c r="H74" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B75" t="s">
-        <v>317</v>
-      </c>
-      <c r="C75" t="s">
-        <v>318</v>
-      </c>
-      <c r="F75" t="s">
-        <v>309</v>
+        <v>326</v>
+      </c>
+      <c r="D75" t="s">
+        <v>327</v>
       </c>
       <c r="G75" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="H75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
-      </c>
-      <c r="C76" t="s">
-        <v>322</v>
-      </c>
-      <c r="F76" t="s">
-        <v>309</v>
+        <v>329</v>
+      </c>
+      <c r="D76" t="s">
+        <v>330</v>
       </c>
       <c r="G76" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>319</v>
+      </c>
+      <c r="H76" t="s">
+        <v>282</v>
+      </c>
+      <c r="I76" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>334</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="H77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
-      </c>
-      <c r="C78" t="s">
-        <v>331</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
+        <v>336</v>
+      </c>
+      <c r="D78" t="s">
+        <v>337</v>
       </c>
       <c r="G78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>319</v>
+      </c>
+      <c r="H78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>332</v>
-      </c>
-      <c r="B79" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79" t="s">
-        <v>334</v>
-      </c>
-      <c r="F79" t="s">
-        <v>309</v>
+        <v>338</v>
+      </c>
+      <c r="D79" t="s">
+        <v>339</v>
       </c>
       <c r="G79" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="H79" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B80" t="s">
-        <v>337</v>
-      </c>
-      <c r="C80" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="G80" t="s">
-        <v>227</v>
+        <v>343</v>
+      </c>
+      <c r="H80" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>339</v>
-      </c>
-      <c r="B81" t="s">
-        <v>340</v>
-      </c>
-      <c r="C81" t="s">
-        <v>341</v>
-      </c>
-      <c r="F81" t="s">
-        <v>309</v>
+        <v>344</v>
+      </c>
+      <c r="D81" t="s">
+        <v>345</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>343</v>
+      </c>
+      <c r="H81" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>342</v>
-      </c>
-      <c r="C82" t="s">
-        <v>343</v>
-      </c>
-      <c r="F82" t="s">
-        <v>309</v>
+        <v>346</v>
+      </c>
+      <c r="B82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" t="s">
+        <v>348</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>349</v>
+      </c>
+      <c r="H82" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C83" t="s">
-        <v>346</v>
-      </c>
-      <c r="F83" t="s">
-        <v>253</v>
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>352</v>
       </c>
       <c r="G83" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>347</v>
+        <v>353</v>
+      </c>
+      <c r="I83" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B84" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C84" t="s">
-        <v>350</v>
-      </c>
-      <c r="F84" t="s">
-        <v>351</v>
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>357</v>
       </c>
       <c r="G84" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="H84" t="s">
-        <v>352</v>
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B85" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C85" t="s">
-        <v>355</v>
-      </c>
-      <c r="F85" t="s">
-        <v>356</v>
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>362</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>357</v>
+        <v>363</v>
+      </c>
+      <c r="H85" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
-      </c>
-      <c r="C86" t="s">
-        <v>360</v>
-      </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" t="s">
-        <v>361</v>
+        <v>365</v>
+      </c>
+      <c r="D86" t="s">
+        <v>366</v>
       </c>
       <c r="G86" t="s">
-        <v>310</v>
+        <v>367</v>
+      </c>
+      <c r="H86" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B87" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" t="s">
+        <v>371</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>372</v>
+      </c>
+      <c r="H87" t="s">
         <v>363</v>
-      </c>
-      <c r="C87" t="s">
-        <v>364</v>
-      </c>
-      <c r="F87" t="s">
-        <v>361</v>
-      </c>
-      <c r="G87" t="s">
-        <v>310</v>
-      </c>
-      <c r="H87" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B88" t="s">
-        <v>367</v>
-      </c>
-      <c r="C88" t="s">
-        <v>368</v>
-      </c>
-      <c r="F88" t="s">
-        <v>361</v>
+        <v>374</v>
+      </c>
+      <c r="D88" t="s">
+        <v>375</v>
       </c>
       <c r="G88" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="H88" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
-      </c>
-      <c r="C89" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="G89" t="s">
-        <v>373</v>
+        <v>376</v>
+      </c>
+      <c r="H89" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B90" t="s">
-        <v>375</v>
-      </c>
-      <c r="C90" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" t="s">
+        <v>382</v>
+      </c>
+      <c r="G90" t="s">
         <v>376</v>
       </c>
-      <c r="F90" t="s">
-        <v>361</v>
-      </c>
-      <c r="G90" t="s">
-        <v>292</v>
+      <c r="H90" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>377</v>
-      </c>
-      <c r="C91" t="s">
-        <v>378</v>
-      </c>
-      <c r="F91" t="s">
-        <v>361</v>
+        <v>383</v>
+      </c>
+      <c r="B91" t="s">
+        <v>384</v>
+      </c>
+      <c r="D91" t="s">
+        <v>385</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
-      </c>
-      <c r="I91" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+      <c r="H91" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B92" t="s">
-        <v>381</v>
-      </c>
-      <c r="C92" t="s">
-        <v>382</v>
+        <v>387</v>
+      </c>
+      <c r="D92" t="s">
+        <v>388</v>
       </c>
       <c r="F92" t="s">
-        <v>383</v>
-      </c>
-      <c r="G92" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="G92">
+        <v>2018</v>
+      </c>
+      <c r="H92" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B93" t="s">
-        <v>385</v>
-      </c>
-      <c r="C93" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>387</v>
-      </c>
-      <c r="G93" t="s">
-        <v>388</v>
+        <v>392</v>
+      </c>
+      <c r="G93">
+        <v>2018</v>
       </c>
       <c r="H93" t="s">
         <v>389</v>
@@ -3514,359 +4094,1191 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B94" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>232</v>
+        <v>395</v>
+      </c>
+      <c r="G94">
+        <v>2018</v>
+      </c>
+      <c r="H94" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
-      </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>147</v>
+        <v>397</v>
+      </c>
+      <c r="D95" t="s">
+        <v>398</v>
+      </c>
+      <c r="G95">
+        <v>2018</v>
+      </c>
+      <c r="H95" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B96" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D96" t="s">
+        <v>402</v>
+      </c>
+      <c r="F96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96">
+        <v>2018</v>
+      </c>
+      <c r="H96" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>403</v>
+      </c>
+      <c r="B97" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" t="s">
+        <v>405</v>
+      </c>
+      <c r="G97">
+        <v>2018</v>
+      </c>
+      <c r="H97" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>407</v>
+      </c>
+      <c r="B98" t="s">
+        <v>408</v>
+      </c>
+      <c r="D98" t="s">
+        <v>409</v>
+      </c>
+      <c r="G98">
+        <v>2018</v>
+      </c>
+      <c r="H98" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>410</v>
+      </c>
+      <c r="B99" t="s">
+        <v>411</v>
+      </c>
+      <c r="C99" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" t="s">
+        <v>412</v>
+      </c>
+      <c r="G99">
+        <v>2018</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>413</v>
+      </c>
+      <c r="B100" t="s">
+        <v>414</v>
+      </c>
+      <c r="C100" t="s">
         <v>18</v>
       </c>
-      <c r="G96" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>397</v>
-      </c>
-      <c r="B97" t="s">
-        <v>398</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D100" t="s">
+        <v>415</v>
+      </c>
+      <c r="G100" t="s">
+        <v>416</v>
+      </c>
+      <c r="H100" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>418</v>
+      </c>
+      <c r="B101" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" t="s">
+        <v>420</v>
+      </c>
+      <c r="D101" t="s">
+        <v>421</v>
+      </c>
+      <c r="G101" t="s">
+        <v>422</v>
+      </c>
+      <c r="H101" t="s">
+        <v>423</v>
+      </c>
+      <c r="I101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>425</v>
+      </c>
+      <c r="B102" t="s">
+        <v>426</v>
+      </c>
+      <c r="D102" t="s">
+        <v>427</v>
+      </c>
+      <c r="G102" t="s">
+        <v>428</v>
+      </c>
+      <c r="H102" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>430</v>
+      </c>
+      <c r="B103" t="s">
+        <v>431</v>
+      </c>
+      <c r="D103" t="s">
+        <v>432</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>433</v>
+      </c>
+      <c r="H103" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>434</v>
+      </c>
+      <c r="B104" t="s">
+        <v>435</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>436</v>
+      </c>
+      <c r="G104" t="s">
+        <v>437</v>
+      </c>
+      <c r="H104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>438</v>
+      </c>
+      <c r="B105" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" t="s">
+        <v>440</v>
+      </c>
+      <c r="G105" t="s">
+        <v>441</v>
+      </c>
+      <c r="H105" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>443</v>
+      </c>
+      <c r="B106" t="s">
+        <v>444</v>
+      </c>
+      <c r="D106" t="s">
+        <v>445</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H106" t="s">
+        <v>447</v>
+      </c>
+      <c r="J106" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>449</v>
+      </c>
+      <c r="B107" t="s">
+        <v>450</v>
+      </c>
+      <c r="D107" t="s">
+        <v>451</v>
+      </c>
+      <c r="G107" t="s">
+        <v>446</v>
+      </c>
+      <c r="H107" t="s">
+        <v>442</v>
+      </c>
+      <c r="I107" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
+        <v>453</v>
+      </c>
+      <c r="B108" t="s">
+        <v>454</v>
+      </c>
+      <c r="C108" t="s">
+        <v>455</v>
+      </c>
+      <c r="D108" t="s">
+        <v>456</v>
+      </c>
+      <c r="G108" t="s">
+        <v>446</v>
+      </c>
+      <c r="H108" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
+        <v>458</v>
+      </c>
+      <c r="B109" t="s">
+        <v>459</v>
+      </c>
+      <c r="D109" t="s">
+        <v>460</v>
+      </c>
+      <c r="G109" t="s">
+        <v>446</v>
+      </c>
+      <c r="H109" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>462</v>
+      </c>
+      <c r="B110" t="s">
+        <v>463</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" t="s">
+        <v>464</v>
+      </c>
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>446</v>
+      </c>
+      <c r="H110" t="s">
+        <v>465</v>
+      </c>
+      <c r="I110" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>467</v>
+      </c>
+      <c r="B111" t="s">
+        <v>468</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" t="s">
+        <v>469</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>446</v>
+      </c>
+      <c r="H111" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>470</v>
+      </c>
+      <c r="B112" t="s">
+        <v>471</v>
+      </c>
+      <c r="D112" t="s">
+        <v>472</v>
+      </c>
+      <c r="G112" t="s">
+        <v>446</v>
+      </c>
+      <c r="H112" t="s">
+        <v>417</v>
+      </c>
+      <c r="I112" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>474</v>
+      </c>
+      <c r="B113" t="s">
+        <v>475</v>
+      </c>
+      <c r="D113" t="s">
+        <v>476</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>446</v>
+      </c>
+      <c r="H113" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>477</v>
+      </c>
+      <c r="B114" t="s">
+        <v>478</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>479</v>
+      </c>
+      <c r="G114" t="s">
+        <v>446</v>
+      </c>
+      <c r="H114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>480</v>
+      </c>
+      <c r="D115" t="s">
+        <v>481</v>
+      </c>
+      <c r="G115" t="s">
+        <v>446</v>
+      </c>
+      <c r="H115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>267</v>
+      </c>
+      <c r="B116" t="s">
+        <v>482</v>
+      </c>
+      <c r="D116" t="s">
+        <v>483</v>
+      </c>
+      <c r="G116" t="s">
+        <v>389</v>
+      </c>
+      <c r="H116" t="s">
+        <v>429</v>
+      </c>
+      <c r="I116" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>484</v>
+      </c>
+      <c r="B117" t="s">
+        <v>485</v>
+      </c>
+      <c r="D117" t="s">
+        <v>486</v>
+      </c>
+      <c r="G117" t="s">
+        <v>487</v>
+      </c>
+      <c r="H117" t="s">
+        <v>447</v>
+      </c>
+      <c r="I117" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>489</v>
+      </c>
+      <c r="B118" t="s">
+        <v>490</v>
+      </c>
+      <c r="D118" t="s">
+        <v>491</v>
+      </c>
+      <c r="G118" t="s">
+        <v>492</v>
+      </c>
+      <c r="H118" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>494</v>
+      </c>
+      <c r="B119" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" t="s">
+        <v>496</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>497</v>
+      </c>
+      <c r="H119" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>498</v>
+      </c>
+      <c r="B120" t="s">
+        <v>499</v>
+      </c>
+      <c r="D120" t="s">
+        <v>500</v>
+      </c>
+      <c r="G120" t="s">
+        <v>497</v>
+      </c>
+      <c r="H120" t="s">
+        <v>447</v>
+      </c>
+      <c r="I120" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>502</v>
+      </c>
+      <c r="B121" t="s">
+        <v>503</v>
+      </c>
+      <c r="D121" t="s">
+        <v>504</v>
+      </c>
+      <c r="G121" t="s">
+        <v>497</v>
+      </c>
+      <c r="H121" t="s">
+        <v>447</v>
+      </c>
+      <c r="I121" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>506</v>
+      </c>
+      <c r="B122" t="s">
+        <v>507</v>
+      </c>
+      <c r="D122" t="s">
+        <v>508</v>
+      </c>
+      <c r="E122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>497</v>
+      </c>
+      <c r="H122" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>510</v>
+      </c>
+      <c r="B123" t="s">
+        <v>511</v>
+      </c>
+      <c r="D123" t="s">
+        <v>512</v>
+      </c>
+      <c r="G123" t="s">
+        <v>497</v>
+      </c>
+      <c r="H123" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>513</v>
+      </c>
+      <c r="D124" t="s">
+        <v>514</v>
+      </c>
+      <c r="G124" t="s">
+        <v>497</v>
+      </c>
+      <c r="H124" t="s">
+        <v>151</v>
+      </c>
+      <c r="J124" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>516</v>
+      </c>
+      <c r="B125" t="s">
+        <v>517</v>
+      </c>
+      <c r="D125" t="s">
+        <v>518</v>
+      </c>
+      <c r="G125" t="s">
+        <v>519</v>
+      </c>
+      <c r="H125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>520</v>
+      </c>
+      <c r="B126" t="s">
+        <v>521</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s">
+        <v>522</v>
+      </c>
+      <c r="E126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
+        <v>523</v>
+      </c>
+      <c r="H126" t="s">
+        <v>524</v>
+      </c>
+      <c r="I126" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>526</v>
+      </c>
+      <c r="B127" t="s">
+        <v>527</v>
+      </c>
+      <c r="E127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>528</v>
+      </c>
+      <c r="B128" t="s">
+        <v>529</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>530</v>
+      </c>
+      <c r="B129" t="s">
+        <v>531</v>
+      </c>
+      <c r="E129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>533</v>
+      </c>
+      <c r="B130" t="s">
+        <v>534</v>
+      </c>
+      <c r="D130" t="s">
+        <v>535</v>
+      </c>
+      <c r="H130" t="s">
+        <v>447</v>
+      </c>
+      <c r="I130" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>536</v>
+      </c>
+      <c r="B131" t="s">
+        <v>537</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>538</v>
+      </c>
+      <c r="E131" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>539</v>
+      </c>
+      <c r="B132" t="s">
+        <v>540</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>541</v>
+      </c>
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>542</v>
+      </c>
+      <c r="B133" t="s">
+        <v>543</v>
+      </c>
+      <c r="D133" t="s">
+        <v>544</v>
+      </c>
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>546</v>
+      </c>
+      <c r="B134" t="s">
+        <v>547</v>
+      </c>
+      <c r="H134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>548</v>
+      </c>
+      <c r="B135" t="s">
+        <v>549</v>
+      </c>
+      <c r="H135" t="s">
+        <v>131</v>
+      </c>
+      <c r="I135" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>548</v>
+      </c>
+      <c r="B136" t="s">
+        <v>551</v>
+      </c>
+      <c r="H136" t="s">
+        <v>131</v>
+      </c>
+      <c r="I136" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>552</v>
+      </c>
+      <c r="B137" t="s">
+        <v>553</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" t="s">
+        <v>127</v>
+      </c>
+      <c r="I137" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>555</v>
+      </c>
+      <c r="B138" t="s">
+        <v>556</v>
+      </c>
+      <c r="H138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>557</v>
+      </c>
+      <c r="B139" t="s">
+        <v>558</v>
+      </c>
+      <c r="H139" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>560</v>
+      </c>
+      <c r="B140" t="s">
+        <v>561</v>
+      </c>
+      <c r="D140" t="s">
+        <v>562</v>
+      </c>
+      <c r="H140" t="s">
+        <v>64</v>
+      </c>
+      <c r="I140" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>564</v>
+      </c>
+      <c r="B141" t="s">
+        <v>565</v>
+      </c>
+      <c r="H141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="B142" t="s">
+        <v>566</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="B143" t="s">
+        <v>567</v>
+      </c>
+      <c r="H143" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="B144" t="s">
+        <v>569</v>
+      </c>
+      <c r="H144" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" t="s">
+        <v>570</v>
+      </c>
+      <c r="H145" t="s">
         <v>399</v>
       </c>
-      <c r="G97" t="s">
-        <v>310</v>
-      </c>
-      <c r="H97" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>401</v>
-      </c>
-      <c r="B98" t="s">
-        <v>402</v>
-      </c>
-      <c r="C98" t="s">
-        <v>403</v>
-      </c>
-      <c r="D98" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>404</v>
-      </c>
-      <c r="B99" t="s">
-        <v>405</v>
-      </c>
-      <c r="C99" t="s">
-        <v>406</v>
-      </c>
-      <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>407</v>
-      </c>
-      <c r="B100" t="s">
-        <v>408</v>
-      </c>
-      <c r="C100" t="s">
-        <v>409</v>
-      </c>
-      <c r="D100" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>411</v>
-      </c>
-      <c r="B101" t="s">
-        <v>412</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>413</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>414</v>
-      </c>
-      <c r="G103" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>416</v>
-      </c>
-      <c r="G104" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="B105" t="s">
-        <v>417</v>
-      </c>
-      <c r="G105" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" t="s">
-        <v>418</v>
-      </c>
-      <c r="G106" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" t="s">
-        <v>419</v>
-      </c>
-      <c r="G107" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" t="s">
-        <v>420</v>
-      </c>
-      <c r="G108" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" t="s">
-        <v>422</v>
-      </c>
-      <c r="G109" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>423</v>
-      </c>
-      <c r="G110" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>424</v>
-      </c>
-      <c r="D111" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>323</v>
-      </c>
-      <c r="H111" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="B112" t="s">
-        <v>426</v>
-      </c>
-      <c r="G112" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113" t="s">
-        <v>428</v>
-      </c>
-      <c r="G113" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114" t="s">
-        <v>429</v>
-      </c>
-      <c r="G114" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115" t="s">
-        <v>430</v>
-      </c>
-      <c r="G115" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" t="s">
-        <v>431</v>
-      </c>
-      <c r="G116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" t="s">
-        <v>432</v>
-      </c>
-      <c r="G117" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" t="s">
-        <v>433</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7">
-      <c r="B119" t="s">
-        <v>434</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120" t="s">
-        <v>435</v>
-      </c>
-      <c r="D120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7">
-      <c r="B121" t="s">
-        <v>436</v>
-      </c>
-      <c r="G121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122" t="s">
-        <v>437</v>
-      </c>
-      <c r="G122" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" t="s">
-        <v>439</v>
-      </c>
-      <c r="E123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124" t="s">
-        <v>441</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7">
-      <c r="B125" t="s">
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" t="s">
+        <v>571</v>
+      </c>
+      <c r="H146" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" t="s">
+        <v>572</v>
+      </c>
+      <c r="H147" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" t="s">
+        <v>573</v>
+      </c>
+      <c r="H148" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" t="s">
+        <v>575</v>
+      </c>
+      <c r="H149" t="s">
         <v>442</v>
       </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7">
-      <c r="B126" t="s">
-        <v>443</v>
-      </c>
-      <c r="G126" t="s">
-        <v>34</v>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" t="s">
+        <v>576</v>
+      </c>
+      <c r="H150" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" t="s">
+        <v>577</v>
+      </c>
+      <c r="E151" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" t="s">
+        <v>461</v>
+      </c>
+      <c r="I151" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" t="s">
+        <v>579</v>
+      </c>
+      <c r="H152" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" t="s">
+        <v>581</v>
+      </c>
+      <c r="H153" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" t="s">
+        <v>582</v>
+      </c>
+      <c r="H154" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" t="s">
+        <v>583</v>
+      </c>
+      <c r="H155" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" t="s">
+        <v>584</v>
+      </c>
+      <c r="H156" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157" t="s">
+        <v>585</v>
+      </c>
+      <c r="H157" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9">
+      <c r="B158" t="s">
+        <v>586</v>
+      </c>
+      <c r="H158" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9">
+      <c r="B159" t="s">
+        <v>587</v>
+      </c>
+      <c r="F159" t="s">
+        <v>20</v>
+      </c>
+      <c r="H159" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="B160" t="s">
+        <v>588</v>
+      </c>
+      <c r="E160" t="s">
+        <v>20</v>
+      </c>
+      <c r="F160" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" t="s">
+        <v>589</v>
+      </c>
+      <c r="H161" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" t="s">
+        <v>590</v>
+      </c>
+      <c r="H162" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" t="s">
+        <v>592</v>
+      </c>
+      <c r="F163" t="s">
+        <v>20</v>
+      </c>
+      <c r="H163" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" t="s">
+        <v>594</v>
+      </c>
+      <c r="F164" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" t="s">
+        <v>595</v>
+      </c>
+      <c r="H165" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" t="s">
+        <v>596</v>
+      </c>
+      <c r="H166" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="B167" t="s">
+        <v>597</v>
+      </c>
+      <c r="H167" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" t="s">
+        <v>598</v>
+      </c>
+      <c r="H168" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" t="s">
+        <v>600</v>
+      </c>
+      <c r="H169" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" t="s">
+        <v>601</v>
+      </c>
+      <c r="H170" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" t="s">
+        <v>602</v>
+      </c>
+      <c r="H171" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" t="s">
+        <v>603</v>
+      </c>
+      <c r="H172" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" t="s">
+        <v>605</v>
+      </c>
+      <c r="H173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" t="s">
+        <v>606</v>
+      </c>
+      <c r="H174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" t="s">
+        <v>607</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" t="s">
+        <v>608</v>
+      </c>
+      <c r="F176" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" t="s">
+        <v>76</v>
+      </c>
+      <c r="J176" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3878,117 +5290,162 @@
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B17" r:id="rId14"/>
-    <hyperlink ref="B18" r:id="rId15"/>
-    <hyperlink ref="B19" r:id="rId16"/>
-    <hyperlink ref="B20" r:id="rId17"/>
-    <hyperlink ref="B21" r:id="rId18"/>
-    <hyperlink ref="B23" r:id="rId19"/>
-    <hyperlink ref="B24" r:id="rId20"/>
-    <hyperlink ref="B25" r:id="rId21"/>
-    <hyperlink ref="B26" r:id="rId22"/>
-    <hyperlink ref="B27" r:id="rId23"/>
-    <hyperlink ref="B28" r:id="rId24"/>
-    <hyperlink ref="B29" r:id="rId25"/>
-    <hyperlink ref="B30" r:id="rId26"/>
-    <hyperlink ref="B31" r:id="rId27"/>
-    <hyperlink ref="B32" r:id="rId28"/>
-    <hyperlink ref="B33" r:id="rId29"/>
-    <hyperlink ref="B34" r:id="rId30"/>
-    <hyperlink ref="B35" r:id="rId31"/>
-    <hyperlink ref="B36" r:id="rId32"/>
-    <hyperlink ref="B38" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B41" r:id="rId36"/>
-    <hyperlink ref="B42" r:id="rId37"/>
-    <hyperlink ref="B43" r:id="rId38"/>
-    <hyperlink ref="B44" r:id="rId39"/>
-    <hyperlink ref="B45" r:id="rId40"/>
-    <hyperlink ref="B46" r:id="rId41"/>
-    <hyperlink ref="B47" r:id="rId42"/>
-    <hyperlink ref="B49" r:id="rId43"/>
-    <hyperlink ref="B50" r:id="rId44"/>
-    <hyperlink ref="B51" r:id="rId45"/>
-    <hyperlink ref="B52" r:id="rId46"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B45" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B48" r:id="rId45"/>
+    <hyperlink ref="B49" r:id="rId46"/>
     <hyperlink ref="B53" r:id="rId47"/>
-    <hyperlink ref="B54" r:id="rId48"/>
-    <hyperlink ref="B55" r:id="rId49"/>
-    <hyperlink ref="B56" r:id="rId50"/>
-    <hyperlink ref="B57" r:id="rId51"/>
-    <hyperlink ref="B58" r:id="rId52"/>
-    <hyperlink ref="B59" r:id="rId53"/>
-    <hyperlink ref="B60" r:id="rId54"/>
-    <hyperlink ref="B61" r:id="rId55"/>
-    <hyperlink ref="B62" r:id="rId56"/>
-    <hyperlink ref="B63" r:id="rId57"/>
-    <hyperlink ref="B64" r:id="rId58"/>
-    <hyperlink ref="B65" r:id="rId59"/>
-    <hyperlink ref="B66" r:id="rId60"/>
-    <hyperlink ref="B67" r:id="rId61"/>
-    <hyperlink ref="B68" r:id="rId62"/>
-    <hyperlink ref="B69" r:id="rId63"/>
-    <hyperlink ref="B70" r:id="rId64"/>
-    <hyperlink ref="B71" r:id="rId65"/>
-    <hyperlink ref="B72" r:id="rId66"/>
-    <hyperlink ref="B73" r:id="rId67"/>
-    <hyperlink ref="B74" r:id="rId68"/>
-    <hyperlink ref="B75" r:id="rId69"/>
-    <hyperlink ref="B76" r:id="rId70"/>
-    <hyperlink ref="B77" r:id="rId71"/>
-    <hyperlink ref="B78" r:id="rId72"/>
-    <hyperlink ref="B79" r:id="rId73"/>
-    <hyperlink ref="B80" r:id="rId74"/>
-    <hyperlink ref="B81" r:id="rId75"/>
-    <hyperlink ref="B83" r:id="rId76"/>
-    <hyperlink ref="B84" r:id="rId77"/>
-    <hyperlink ref="B85" r:id="rId78"/>
-    <hyperlink ref="B86" r:id="rId79"/>
-    <hyperlink ref="B87" r:id="rId80"/>
-    <hyperlink ref="B88" r:id="rId81"/>
-    <hyperlink ref="B89" r:id="rId82"/>
-    <hyperlink ref="B90" r:id="rId83"/>
-    <hyperlink ref="B92" r:id="rId84"/>
-    <hyperlink ref="B93" r:id="rId85"/>
-    <hyperlink ref="B94" r:id="rId86"/>
-    <hyperlink ref="B95" r:id="rId87"/>
-    <hyperlink ref="B96" r:id="rId88"/>
-    <hyperlink ref="B97" r:id="rId89"/>
-    <hyperlink ref="B98" r:id="rId90"/>
-    <hyperlink ref="B99" r:id="rId91"/>
-    <hyperlink ref="B100" r:id="rId92"/>
-    <hyperlink ref="B101" r:id="rId93"/>
-    <hyperlink ref="B102" r:id="rId94"/>
-    <hyperlink ref="B103" r:id="rId95"/>
-    <hyperlink ref="B104" r:id="rId96"/>
-    <hyperlink ref="B105" r:id="rId97"/>
-    <hyperlink ref="B106" r:id="rId98"/>
-    <hyperlink ref="B107" r:id="rId99"/>
-    <hyperlink ref="B108" r:id="rId100"/>
-    <hyperlink ref="B109" r:id="rId101"/>
-    <hyperlink ref="B110" r:id="rId102"/>
-    <hyperlink ref="B111" r:id="rId103"/>
-    <hyperlink ref="B112" r:id="rId104"/>
-    <hyperlink ref="B113" r:id="rId105"/>
-    <hyperlink ref="B114" r:id="rId106"/>
-    <hyperlink ref="B115" r:id="rId107"/>
-    <hyperlink ref="B116" r:id="rId108"/>
-    <hyperlink ref="B117" r:id="rId109"/>
-    <hyperlink ref="B118" r:id="rId110"/>
-    <hyperlink ref="B119" r:id="rId111"/>
-    <hyperlink ref="B120" r:id="rId112"/>
-    <hyperlink ref="B121" r:id="rId113"/>
-    <hyperlink ref="B122" r:id="rId114"/>
-    <hyperlink ref="B123" r:id="rId115"/>
-    <hyperlink ref="B124" r:id="rId116"/>
-    <hyperlink ref="B125" r:id="rId117"/>
-    <hyperlink ref="B126" r:id="rId118"/>
+    <hyperlink ref="B55" r:id="rId48"/>
+    <hyperlink ref="B56" r:id="rId49"/>
+    <hyperlink ref="B57" r:id="rId50"/>
+    <hyperlink ref="B58" r:id="rId51"/>
+    <hyperlink ref="B59" r:id="rId52"/>
+    <hyperlink ref="B60" r:id="rId53"/>
+    <hyperlink ref="B61" r:id="rId54"/>
+    <hyperlink ref="B63" r:id="rId55"/>
+    <hyperlink ref="B64" r:id="rId56"/>
+    <hyperlink ref="B65" r:id="rId57"/>
+    <hyperlink ref="B66" r:id="rId58"/>
+    <hyperlink ref="B67" r:id="rId59"/>
+    <hyperlink ref="B68" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B75" r:id="rId66"/>
+    <hyperlink ref="B76" r:id="rId67"/>
+    <hyperlink ref="B77" r:id="rId68"/>
+    <hyperlink ref="B78" r:id="rId69"/>
+    <hyperlink ref="B80" r:id="rId70"/>
+    <hyperlink ref="B82" r:id="rId71"/>
+    <hyperlink ref="B83" r:id="rId72"/>
+    <hyperlink ref="B84" r:id="rId73"/>
+    <hyperlink ref="B85" r:id="rId74"/>
+    <hyperlink ref="B86" r:id="rId75"/>
+    <hyperlink ref="B87" r:id="rId76"/>
+    <hyperlink ref="B88" r:id="rId77"/>
+    <hyperlink ref="B89" r:id="rId78"/>
+    <hyperlink ref="B90" r:id="rId79"/>
+    <hyperlink ref="B91" r:id="rId80"/>
+    <hyperlink ref="B92" r:id="rId81"/>
+    <hyperlink ref="B93" r:id="rId82"/>
+    <hyperlink ref="B94" r:id="rId83"/>
+    <hyperlink ref="B95" r:id="rId84"/>
+    <hyperlink ref="B96" r:id="rId85"/>
+    <hyperlink ref="B97" r:id="rId86"/>
+    <hyperlink ref="B98" r:id="rId87"/>
+    <hyperlink ref="B99" r:id="rId88"/>
+    <hyperlink ref="B100" r:id="rId89"/>
+    <hyperlink ref="B101" r:id="rId90"/>
+    <hyperlink ref="B102" r:id="rId91"/>
+    <hyperlink ref="B103" r:id="rId92"/>
+    <hyperlink ref="B104" r:id="rId93"/>
+    <hyperlink ref="B105" r:id="rId94"/>
+    <hyperlink ref="B106" r:id="rId95"/>
+    <hyperlink ref="B107" r:id="rId96"/>
+    <hyperlink ref="B108" r:id="rId97"/>
+    <hyperlink ref="B109" r:id="rId98"/>
+    <hyperlink ref="B110" r:id="rId99"/>
+    <hyperlink ref="B111" r:id="rId100"/>
+    <hyperlink ref="B112" r:id="rId101"/>
+    <hyperlink ref="B113" r:id="rId102"/>
+    <hyperlink ref="B114" r:id="rId103"/>
+    <hyperlink ref="B116" r:id="rId104"/>
+    <hyperlink ref="B117" r:id="rId105"/>
+    <hyperlink ref="B118" r:id="rId106"/>
+    <hyperlink ref="B119" r:id="rId107"/>
+    <hyperlink ref="B120" r:id="rId108"/>
+    <hyperlink ref="B121" r:id="rId109"/>
+    <hyperlink ref="B122" r:id="rId110"/>
+    <hyperlink ref="B123" r:id="rId111"/>
+    <hyperlink ref="B125" r:id="rId112"/>
+    <hyperlink ref="B126" r:id="rId113"/>
+    <hyperlink ref="B127" r:id="rId114"/>
+    <hyperlink ref="B128" r:id="rId115"/>
+    <hyperlink ref="B129" r:id="rId116"/>
+    <hyperlink ref="B130" r:id="rId117"/>
+    <hyperlink ref="B131" r:id="rId118"/>
+    <hyperlink ref="B132" r:id="rId119"/>
+    <hyperlink ref="B133" r:id="rId120"/>
+    <hyperlink ref="B134" r:id="rId121"/>
+    <hyperlink ref="B135" r:id="rId122"/>
+    <hyperlink ref="B136" r:id="rId123"/>
+    <hyperlink ref="B137" r:id="rId124"/>
+    <hyperlink ref="B138" r:id="rId125"/>
+    <hyperlink ref="B139" r:id="rId126"/>
+    <hyperlink ref="B140" r:id="rId127"/>
+    <hyperlink ref="B141" r:id="rId128"/>
+    <hyperlink ref="B142" r:id="rId129"/>
+    <hyperlink ref="B143" r:id="rId130"/>
+    <hyperlink ref="B144" r:id="rId131"/>
+    <hyperlink ref="B145" r:id="rId132"/>
+    <hyperlink ref="B146" r:id="rId133"/>
+    <hyperlink ref="B147" r:id="rId134"/>
+    <hyperlink ref="B148" r:id="rId135"/>
+    <hyperlink ref="B149" r:id="rId136"/>
+    <hyperlink ref="B150" r:id="rId137"/>
+    <hyperlink ref="B151" r:id="rId138"/>
+    <hyperlink ref="B152" r:id="rId139"/>
+    <hyperlink ref="B153" r:id="rId140"/>
+    <hyperlink ref="B154" r:id="rId141"/>
+    <hyperlink ref="B155" r:id="rId142"/>
+    <hyperlink ref="B156" r:id="rId143"/>
+    <hyperlink ref="B157" r:id="rId144"/>
+    <hyperlink ref="B158" r:id="rId145"/>
+    <hyperlink ref="B159" r:id="rId146"/>
+    <hyperlink ref="B160" r:id="rId147"/>
+    <hyperlink ref="B161" r:id="rId148"/>
+    <hyperlink ref="B162" r:id="rId149"/>
+    <hyperlink ref="B163" r:id="rId150"/>
+    <hyperlink ref="B164" r:id="rId151"/>
+    <hyperlink ref="B165" r:id="rId152"/>
+    <hyperlink ref="B166" r:id="rId153"/>
+    <hyperlink ref="B167" r:id="rId154"/>
+    <hyperlink ref="B168" r:id="rId155"/>
+    <hyperlink ref="B169" r:id="rId156"/>
+    <hyperlink ref="B170" r:id="rId157"/>
+    <hyperlink ref="B171" r:id="rId158"/>
+    <hyperlink ref="B172" r:id="rId159"/>
+    <hyperlink ref="B173" r:id="rId160"/>
+    <hyperlink ref="B174" r:id="rId161"/>
+    <hyperlink ref="B175" r:id="rId162"/>
+    <hyperlink ref="B176" r:id="rId163"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/publications.xlsx
+++ b/public/publications.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="624">
   <si>
     <t>doi</t>
   </si>
@@ -146,6 +146,22 @@
   </si>
   <si>
     <t>2018-04-15</t>
+  </si>
+  <si>
+    <t>10.1145/3230652</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?id=3230652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikora, M., Russo, M., Đerek, J., &amp; Jurčević, A. (2018). Soundscape of an Archaeological Site Recreated with Audio Augmented Reality. ACM Transactions on Multimedia Computing, Communications, and Applications, 14(3), 1–22. doi:10.1145/3230652
+</t>
+  </si>
+  <si>
+    <t>2018-07-24</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
   </si>
   <si>
     <t>10.5334/oq.40</t>
@@ -275,6 +291,32 @@
   </si>
   <si>
     <t>2018-04-21</t>
+  </si>
+  <si>
+    <t>10.1016/j.cretres.2018.07.012</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0195667118301265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumbaa, S. L., Day, R., Gingras, M., Haggart, J. W., Holmes, R. B., Murray, A. M., &amp; Schröder-Adams, C. (2018). Lac des Bois, a locality in the Northern Western Interior Seaway (Canada) with Tethyan faunal connections during the Cenomanian/Turonian Thermal Maximum. Cretaceous Research. doi:10.1016/j.cretres.2018.07.012
+</t>
+  </si>
+  <si>
+    <t>2018-07-28</t>
+  </si>
+  <si>
+    <t>CMN 17426</t>
+  </si>
+  <si>
+    <t>10.1017/S0024282918000300</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/lichenologist/article/habitat-associations-and-distribution-model-for-fuscopannaria-leucosticta-in-nova-scotia-canada/FCE95DB86254CC7C7342548DC817A466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEARSON, K., CAMERON, R., &amp; MCMULLIN, R. T. (2018). Habitat associations and distribution model for Fuscopannaria leucosticta in Nova Scotia, Canada. The Lichenologist, 50(04), 487–497. doi:10.1017/s0024282918000300
+</t>
   </si>
   <si>
     <t>10.1017/jpa.2018.19</t>
@@ -1961,6 +2003,9 @@
   </si>
   <si>
     <t>https://digitalcommons.unl.edu/cgi/viewcontent.cgi?article=1161&amp;context=entomologypapers</t>
+  </si>
+  <si>
+    <t>CMNC CASC</t>
   </si>
   <si>
     <t>https://www.ajhtl.com/uploads/7/1/6/3/7163688/article_50_vol_7_2__2018.pdf</t>
@@ -2313,7 +2358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2505,21 +2550,21 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -2527,41 +2572,41 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2572,9 +2617,6 @@
       <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" t="s">
         <v>67</v>
       </c>
@@ -2582,50 +2624,50 @@
         <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
       </c>
       <c r="H15" t="s">
         <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2635,11 +2677,11 @@
       <c r="B16" t="s">
         <v>78</v>
       </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" t="s">
         <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
@@ -2658,99 +2700,108 @@
       <c r="D17" t="s">
         <v>84</v>
       </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
       <c r="G17" t="s">
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
       </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>97</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>98</v>
       </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
         <v>101</v>
       </c>
-      <c r="B21" t="s">
+      <c r="G21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
         <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="s">
+      <c r="G22" t="s">
         <v>107</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2764,219 +2815,219 @@
         <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
         <v>117</v>
       </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" t="s">
-        <v>104</v>
-      </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
       </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
       <c r="G27" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" t="s">
         <v>128</v>
-      </c>
-      <c r="B28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
         <v>134</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
         <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
         <v>137</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>138</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
         <v>139</v>
       </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>140</v>
-      </c>
-      <c r="H30" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
         <v>142</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>143</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
         <v>144</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" t="s">
         <v>145</v>
-      </c>
-      <c r="H31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>148</v>
       </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
         <v>149</v>
       </c>
-      <c r="G32" t="s">
-        <v>150</v>
-      </c>
       <c r="H32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
         <v>152</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
         <v>153</v>
       </c>
-      <c r="D33" t="s">
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" t="s">
         <v>154</v>
-      </c>
-      <c r="G33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2990,78 +3041,81 @@
         <v>157</v>
       </c>
       <c r="G34" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" t="s">
         <v>163</v>
       </c>
-      <c r="D36" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" t="s">
-        <v>165</v>
-      </c>
       <c r="H36" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3078,61 +3132,58 @@
         <v>178</v>
       </c>
       <c r="H39" t="s">
-        <v>151</v>
+        <v>159</v>
+      </c>
+      <c r="I39" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" t="s">
         <v>180</v>
       </c>
       <c r="D40" t="s">
         <v>181</v>
       </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
       <c r="G40" t="s">
         <v>182</v>
       </c>
       <c r="H40" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
         <v>184</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>185</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>186</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>187</v>
-      </c>
-      <c r="H41" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
         <v>189</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>190</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
         <v>191</v>
       </c>
-      <c r="G42" t="s">
-        <v>187</v>
-      </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3142,22 +3193,16 @@
       <c r="B43" t="s">
         <v>193</v>
       </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
       <c r="D43" t="s">
         <v>194</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
-      </c>
-      <c r="J43" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3165,424 +3210,427 @@
       <c r="A44" t="s">
         <v>197</v>
       </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H44" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" t="s">
         <v>200</v>
       </c>
-      <c r="D45" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" t="s">
-        <v>202</v>
-      </c>
       <c r="H45" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>208</v>
+      </c>
+      <c r="J46" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="H47" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" t="s">
         <v>213</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>214</v>
       </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
         <v>215</v>
       </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>216</v>
-      </c>
-      <c r="H48" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" t="s">
         <v>218</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>219</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>220</v>
       </c>
-      <c r="G49" t="s">
-        <v>221</v>
-      </c>
       <c r="H49" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" t="s">
         <v>223</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>224</v>
       </c>
-      <c r="D50" t="s">
+      <c r="H50" t="s">
         <v>225</v>
-      </c>
-      <c r="G50" t="s">
-        <v>221</v>
-      </c>
-      <c r="H50" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>226</v>
       </c>
+      <c r="B51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
-      </c>
-      <c r="E52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H52" t="s">
-        <v>136</v>
-      </c>
-      <c r="I52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" t="s">
         <v>234</v>
       </c>
-      <c r="B53" t="s">
-        <v>235</v>
-      </c>
-      <c r="D53" t="s">
-        <v>236</v>
-      </c>
-      <c r="G53" t="s">
-        <v>237</v>
-      </c>
       <c r="H53" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" t="s">
         <v>240</v>
       </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
         <v>241</v>
       </c>
-      <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" t="s">
         <v>242</v>
-      </c>
-      <c r="H54" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>243</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>244</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
         <v>245</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" t="s">
         <v>246</v>
-      </c>
-      <c r="H55" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" t="s">
         <v>248</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>249</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>250</v>
-      </c>
-      <c r="G56" t="s">
-        <v>246</v>
       </c>
       <c r="H56" t="s">
         <v>251</v>
       </c>
+      <c r="I56" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" t="s">
         <v>253</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
       </c>
       <c r="D57" t="s">
         <v>254</v>
       </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
       <c r="G57" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H57" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D58" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="G58" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H58" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+      <c r="G59" t="s">
         <v>259</v>
       </c>
-      <c r="D59" t="s">
-        <v>260</v>
-      </c>
-      <c r="G59" t="s">
-        <v>246</v>
-      </c>
       <c r="H59" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H60" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
         <v>20</v>
       </c>
-      <c r="F61" t="s">
-        <v>20</v>
-      </c>
       <c r="G61" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H61" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="B62" t="s">
+        <v>272</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H62" t="s">
-        <v>136</v>
-      </c>
-      <c r="I62" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
-      </c>
-      <c r="C63" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D63" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G63" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H63" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
-      </c>
-      <c r="C64" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>279</v>
-      </c>
-      <c r="B65" t="s">
         <v>280</v>
       </c>
       <c r="D65" t="s">
         <v>281</v>
       </c>
       <c r="G65" t="s">
+        <v>259</v>
+      </c>
+      <c r="H65" t="s">
+        <v>149</v>
+      </c>
+      <c r="I65" t="s">
         <v>282</v>
-      </c>
-      <c r="H65" t="s">
-        <v>283</v>
-      </c>
-      <c r="J65" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" t="s">
         <v>285</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>286</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>287</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>288</v>
-      </c>
-      <c r="H66" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3592,54 +3640,54 @@
       <c r="B67" t="s">
         <v>290</v>
       </c>
+      <c r="C67" t="s">
+        <v>285</v>
+      </c>
       <c r="D67" t="s">
         <v>291</v>
       </c>
       <c r="G67" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H67" t="s">
-        <v>293</v>
-      </c>
-      <c r="I67" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D68" t="s">
+        <v>294</v>
+      </c>
+      <c r="G68" t="s">
         <v>295</v>
       </c>
-      <c r="B68" t="s">
+      <c r="H68" t="s">
         <v>296</v>
       </c>
-      <c r="D68" t="s">
+      <c r="J68" t="s">
         <v>297</v>
-      </c>
-      <c r="G68" t="s">
-        <v>298</v>
-      </c>
-      <c r="H68" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
         <v>299</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
       </c>
       <c r="D69" t="s">
         <v>300</v>
       </c>
       <c r="G69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H69" t="s">
-        <v>242</v>
-      </c>
-      <c r="I69" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3652,339 +3700,336 @@
       <c r="D70" t="s">
         <v>304</v>
       </c>
-      <c r="E70" t="s">
-        <v>20</v>
-      </c>
       <c r="G70" t="s">
         <v>305</v>
       </c>
       <c r="H70" t="s">
-        <v>292</v>
+        <v>306</v>
+      </c>
+      <c r="I70" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" t="s">
+        <v>309</v>
+      </c>
+      <c r="D71" t="s">
+        <v>310</v>
+      </c>
+      <c r="G71" t="s">
+        <v>311</v>
+      </c>
+      <c r="H71" t="s">
         <v>306</v>
-      </c>
-      <c r="B71" t="s">
-        <v>307</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>308</v>
-      </c>
-      <c r="E71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>309</v>
-      </c>
-      <c r="H71" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>311</v>
-      </c>
-      <c r="B72" t="s">
         <v>312</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
       </c>
       <c r="D72" t="s">
         <v>313</v>
       </c>
       <c r="G72" t="s">
+        <v>311</v>
+      </c>
+      <c r="H72" t="s">
+        <v>255</v>
+      </c>
+      <c r="I72" t="s">
         <v>314</v>
-      </c>
-      <c r="H72" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" t="s">
         <v>316</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>317</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
         <v>318</v>
       </c>
-      <c r="G73" t="s">
-        <v>319</v>
-      </c>
       <c r="H73" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
+        <v>319</v>
+      </c>
+      <c r="B74" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
         <v>321</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
         <v>322</v>
       </c>
-      <c r="D74" t="s">
+      <c r="H74" t="s">
         <v>323</v>
-      </c>
-      <c r="G74" t="s">
-        <v>319</v>
-      </c>
-      <c r="H74" t="s">
-        <v>292</v>
-      </c>
-      <c r="I74" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75" t="s">
         <v>325</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>326</v>
       </c>
-      <c r="D75" t="s">
+      <c r="G75" t="s">
         <v>327</v>
       </c>
-      <c r="G75" t="s">
-        <v>319</v>
-      </c>
       <c r="H75" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D76" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G76" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H76" t="s">
-        <v>282</v>
-      </c>
-      <c r="I76" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" t="s">
+        <v>335</v>
+      </c>
+      <c r="D77" t="s">
+        <v>336</v>
+      </c>
+      <c r="G77" t="s">
         <v>332</v>
       </c>
-      <c r="B77" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" t="s">
-        <v>334</v>
-      </c>
-      <c r="E77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>319</v>
-      </c>
       <c r="H77" t="s">
-        <v>221</v>
+        <v>305</v>
+      </c>
+      <c r="I77" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D78" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G78" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H78" t="s">
-        <v>183</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="B79" t="s">
+        <v>342</v>
       </c>
       <c r="D79" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G79" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H79" t="s">
-        <v>136</v>
+        <v>295</v>
+      </c>
+      <c r="I79" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B80" t="s">
-        <v>341</v>
+        <v>346</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>342</v>
+        <v>347</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H80" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>344</v>
+        <v>348</v>
+      </c>
+      <c r="B81" t="s">
+        <v>349</v>
       </c>
       <c r="D81" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G81" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H81" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>346</v>
-      </c>
-      <c r="B82" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D82" t="s">
-        <v>348</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="G82" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="H82" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B83" t="s">
-        <v>351</v>
-      </c>
-      <c r="C83" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="H83" t="s">
-        <v>353</v>
-      </c>
-      <c r="I83" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>355</v>
-      </c>
-      <c r="B84" t="s">
+        <v>357</v>
+      </c>
+      <c r="D84" t="s">
+        <v>358</v>
+      </c>
+      <c r="G84" t="s">
         <v>356</v>
       </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>357</v>
-      </c>
-      <c r="G84" t="s">
-        <v>358</v>
-      </c>
       <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>359</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
+        <v>359</v>
+      </c>
+      <c r="B85" t="s">
         <v>360</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>361</v>
       </c>
-      <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
         <v>362</v>
       </c>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>363</v>
-      </c>
       <c r="H85" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
+        <v>363</v>
+      </c>
+      <c r="B86" t="s">
         <v>364</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
         <v>365</v>
       </c>
-      <c r="D86" t="s">
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
         <v>366</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>367</v>
-      </c>
-      <c r="H86" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>368</v>
+      </c>
+      <c r="B87" t="s">
         <v>369</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
         <v>370</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
         <v>371</v>
       </c>
-      <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
         <v>372</v>
-      </c>
-      <c r="H87" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3994,14 +4039,20 @@
       <c r="B88" t="s">
         <v>374</v>
       </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
       <c r="D88" t="s">
         <v>375</v>
       </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
       <c r="G88" t="s">
         <v>376</v>
       </c>
       <c r="H88" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4015,289 +4066,286 @@
         <v>379</v>
       </c>
       <c r="G89" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H89" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D90" t="s">
-        <v>382</v>
+        <v>384</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
       </c>
       <c r="G90" t="s">
+        <v>385</v>
+      </c>
+      <c r="H90" t="s">
         <v>376</v>
-      </c>
-      <c r="H90" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B91" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D91" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G91" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H91" t="s">
-        <v>195</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B92" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D92" t="s">
-        <v>388</v>
-      </c>
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92">
-        <v>2018</v>
+        <v>392</v>
+      </c>
+      <c r="G92" t="s">
+        <v>389</v>
       </c>
       <c r="H92" t="s">
-        <v>389</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B93" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D93" t="s">
-        <v>392</v>
-      </c>
-      <c r="G93">
-        <v>2018</v>
+        <v>395</v>
+      </c>
+      <c r="G93" t="s">
+        <v>389</v>
       </c>
       <c r="H93" t="s">
-        <v>389</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B94" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D94" t="s">
-        <v>395</v>
-      </c>
-      <c r="G94">
-        <v>2018</v>
+        <v>398</v>
+      </c>
+      <c r="G94" t="s">
+        <v>389</v>
       </c>
       <c r="H94" t="s">
-        <v>389</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D95" t="s">
-        <v>398</v>
+        <v>401</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
       </c>
       <c r="G95">
         <v>2018</v>
       </c>
       <c r="H95" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B96" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D96" t="s">
-        <v>402</v>
-      </c>
-      <c r="F96" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="G96">
         <v>2018</v>
       </c>
       <c r="H96" t="s">
-        <v>275</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B97" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D97" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G97">
         <v>2018</v>
       </c>
       <c r="H97" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B98" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D98" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G98">
         <v>2018</v>
       </c>
       <c r="H98" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B99" t="s">
-        <v>411</v>
-      </c>
-      <c r="C99" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="D99" t="s">
-        <v>412</v>
+        <v>415</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
       </c>
       <c r="G99">
         <v>2018</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B100" t="s">
-        <v>414</v>
-      </c>
-      <c r="C100" t="s">
-        <v>18</v>
+        <v>417</v>
       </c>
       <c r="D100" t="s">
-        <v>415</v>
-      </c>
-      <c r="G100" t="s">
-        <v>416</v>
+        <v>418</v>
+      </c>
+      <c r="G100">
+        <v>2018</v>
       </c>
       <c r="H100" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B101" t="s">
+        <v>421</v>
+      </c>
+      <c r="D101" t="s">
+        <v>422</v>
+      </c>
+      <c r="G101">
+        <v>2018</v>
+      </c>
+      <c r="H101" t="s">
         <v>419</v>
-      </c>
-      <c r="C101" t="s">
-        <v>420</v>
-      </c>
-      <c r="D101" t="s">
-        <v>421</v>
-      </c>
-      <c r="G101" t="s">
-        <v>422</v>
-      </c>
-      <c r="H101" t="s">
-        <v>423</v>
-      </c>
-      <c r="I101" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" t="s">
+        <v>424</v>
+      </c>
+      <c r="C102" t="s">
+        <v>285</v>
+      </c>
+      <c r="D102" t="s">
         <v>425</v>
       </c>
-      <c r="B102" t="s">
-        <v>426</v>
-      </c>
-      <c r="D102" t="s">
-        <v>427</v>
-      </c>
-      <c r="G102" t="s">
-        <v>428</v>
+      <c r="G102">
+        <v>2018</v>
       </c>
       <c r="H102" t="s">
-        <v>429</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
+        <v>426</v>
+      </c>
+      <c r="B103" t="s">
+        <v>427</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>428</v>
+      </c>
+      <c r="G103" t="s">
+        <v>429</v>
+      </c>
+      <c r="H103" t="s">
         <v>430</v>
-      </c>
-      <c r="B103" t="s">
-        <v>431</v>
-      </c>
-      <c r="D103" t="s">
-        <v>432</v>
-      </c>
-      <c r="E103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>433</v>
-      </c>
-      <c r="H103" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
+        <v>431</v>
+      </c>
+      <c r="B104" t="s">
+        <v>432</v>
+      </c>
+      <c r="C104" t="s">
+        <v>433</v>
+      </c>
+      <c r="D104" t="s">
         <v>434</v>
       </c>
-      <c r="B104" t="s">
+      <c r="G104" t="s">
         <v>435</v>
       </c>
-      <c r="C104" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="H104" t="s">
         <v>436</v>
       </c>
-      <c r="G104" t="s">
+      <c r="I104" t="s">
         <v>437</v>
-      </c>
-      <c r="H104" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4334,66 +4382,66 @@
         <v>446</v>
       </c>
       <c r="H106" t="s">
-        <v>447</v>
-      </c>
-      <c r="J106" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
+        <v>447</v>
+      </c>
+      <c r="B107" t="s">
+        <v>448</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" t="s">
         <v>449</v>
       </c>
-      <c r="B107" t="s">
+      <c r="G107" t="s">
         <v>450</v>
       </c>
-      <c r="D107" t="s">
-        <v>451</v>
-      </c>
-      <c r="G107" t="s">
-        <v>446</v>
-      </c>
       <c r="H107" t="s">
-        <v>442</v>
-      </c>
-      <c r="I107" t="s">
-        <v>452</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
+        <v>451</v>
+      </c>
+      <c r="B108" t="s">
+        <v>452</v>
+      </c>
+      <c r="D108" t="s">
         <v>453</v>
       </c>
-      <c r="B108" t="s">
+      <c r="G108" t="s">
         <v>454</v>
       </c>
-      <c r="C108" t="s">
+      <c r="H108" t="s">
         <v>455</v>
-      </c>
-      <c r="D108" t="s">
-        <v>456</v>
-      </c>
-      <c r="G108" t="s">
-        <v>446</v>
-      </c>
-      <c r="H108" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
+        <v>456</v>
+      </c>
+      <c r="B109" t="s">
+        <v>457</v>
+      </c>
+      <c r="D109" t="s">
         <v>458</v>
       </c>
-      <c r="B109" t="s">
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
         <v>459</v>
       </c>
-      <c r="D109" t="s">
+      <c r="H109" t="s">
         <v>460</v>
       </c>
-      <c r="G109" t="s">
-        <v>446</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="J109" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4404,185 +4452,185 @@
       <c r="B110" t="s">
         <v>463</v>
       </c>
-      <c r="C110" t="s">
-        <v>18</v>
-      </c>
       <c r="D110" t="s">
         <v>464</v>
       </c>
-      <c r="E110" t="s">
-        <v>20</v>
-      </c>
-      <c r="F110" t="s">
-        <v>20</v>
-      </c>
       <c r="G110" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H110" t="s">
+        <v>455</v>
+      </c>
+      <c r="I110" t="s">
         <v>465</v>
-      </c>
-      <c r="I110" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
+        <v>466</v>
+      </c>
+      <c r="B111" t="s">
         <v>467</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>468</v>
-      </c>
-      <c r="C111" t="s">
-        <v>18</v>
       </c>
       <c r="D111" t="s">
         <v>469</v>
       </c>
-      <c r="F111" t="s">
-        <v>20</v>
-      </c>
       <c r="G111" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H111" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B112" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D112" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G112" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H112" t="s">
-        <v>417</v>
-      </c>
-      <c r="I112" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B113" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E113" t="s">
         <v>20</v>
       </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
       <c r="G113" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H113" t="s">
-        <v>363</v>
+        <v>478</v>
+      </c>
+      <c r="I113" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B114" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>479</v>
+        <v>482</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>480</v>
+        <v>483</v>
+      </c>
+      <c r="B115" t="s">
+        <v>484</v>
       </c>
       <c r="D115" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G115" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>430</v>
+      </c>
+      <c r="I115" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>267</v>
+        <v>487</v>
       </c>
       <c r="B116" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D116" t="s">
-        <v>483</v>
+        <v>489</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="H116" t="s">
-        <v>429</v>
-      </c>
-      <c r="I116" t="s">
-        <v>269</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B117" t="s">
-        <v>485</v>
+        <v>491</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G117" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="H117" t="s">
-        <v>447</v>
-      </c>
-      <c r="I117" t="s">
-        <v>488</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>489</v>
-      </c>
-      <c r="B118" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D118" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G118" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="H118" t="s">
-        <v>493</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>494</v>
+        <v>280</v>
       </c>
       <c r="B119" t="s">
         <v>495</v>
@@ -4590,31 +4638,31 @@
       <c r="D119" t="s">
         <v>496</v>
       </c>
-      <c r="F119" t="s">
-        <v>20</v>
-      </c>
       <c r="G119" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="H119" t="s">
-        <v>447</v>
+        <v>442</v>
+      </c>
+      <c r="I119" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
+        <v>497</v>
+      </c>
+      <c r="B120" t="s">
         <v>498</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>499</v>
       </c>
-      <c r="D120" t="s">
+      <c r="G120" t="s">
         <v>500</v>
       </c>
-      <c r="G120" t="s">
-        <v>497</v>
-      </c>
       <c r="H120" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="I120" t="s">
         <v>501</v>
@@ -4631,654 +4679,714 @@
         <v>504</v>
       </c>
       <c r="G121" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="H121" t="s">
-        <v>447</v>
-      </c>
-      <c r="I121" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B122" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D122" t="s">
-        <v>508</v>
-      </c>
-      <c r="E122" t="s">
+        <v>509</v>
+      </c>
+      <c r="F122" t="s">
         <v>20</v>
       </c>
       <c r="G122" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="H122" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
+        <v>511</v>
+      </c>
+      <c r="B123" t="s">
+        <v>512</v>
+      </c>
+      <c r="D123" t="s">
+        <v>513</v>
+      </c>
+      <c r="G123" t="s">
         <v>510</v>
       </c>
-      <c r="B123" t="s">
-        <v>511</v>
-      </c>
-      <c r="D123" t="s">
-        <v>512</v>
-      </c>
-      <c r="G123" t="s">
-        <v>497</v>
-      </c>
       <c r="H123" t="s">
-        <v>429</v>
+        <v>460</v>
+      </c>
+      <c r="I123" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>513</v>
+        <v>515</v>
+      </c>
+      <c r="B124" t="s">
+        <v>516</v>
       </c>
       <c r="D124" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G124" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="H124" t="s">
-        <v>151</v>
-      </c>
-      <c r="J124" t="s">
-        <v>515</v>
+        <v>460</v>
+      </c>
+      <c r="I124" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B125" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D125" t="s">
-        <v>518</v>
+        <v>521</v>
+      </c>
+      <c r="E125" t="s">
+        <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B126" t="s">
-        <v>521</v>
-      </c>
-      <c r="C126" t="s">
-        <v>18</v>
+        <v>524</v>
       </c>
       <c r="D126" t="s">
-        <v>522</v>
-      </c>
-      <c r="E126" t="s">
-        <v>20</v>
+        <v>525</v>
       </c>
       <c r="G126" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="H126" t="s">
-        <v>524</v>
-      </c>
-      <c r="I126" t="s">
-        <v>525</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>526</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>527</v>
       </c>
-      <c r="E127" t="s">
-        <v>20</v>
+      <c r="G127" t="s">
+        <v>510</v>
       </c>
       <c r="H127" t="s">
-        <v>368</v>
+        <v>164</v>
+      </c>
+      <c r="J127" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B128" t="s">
-        <v>529</v>
-      </c>
-      <c r="F128" t="s">
-        <v>20</v>
+        <v>530</v>
+      </c>
+      <c r="D128" t="s">
+        <v>531</v>
+      </c>
+      <c r="G128" t="s">
+        <v>532</v>
       </c>
       <c r="H128" t="s">
-        <v>282</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B129" t="s">
-        <v>531</v>
+        <v>534</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>535</v>
       </c>
       <c r="E129" t="s">
         <v>20</v>
       </c>
+      <c r="G129" t="s">
+        <v>536</v>
+      </c>
       <c r="H129" t="s">
-        <v>532</v>
+        <v>537</v>
+      </c>
+      <c r="I129" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B130" t="s">
-        <v>534</v>
-      </c>
-      <c r="D130" t="s">
-        <v>535</v>
+        <v>540</v>
+      </c>
+      <c r="E130" t="s">
+        <v>20</v>
       </c>
       <c r="H130" t="s">
-        <v>447</v>
-      </c>
-      <c r="I130" t="s">
-        <v>59</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B131" t="s">
-        <v>537</v>
-      </c>
-      <c r="C131" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" t="s">
-        <v>538</v>
-      </c>
-      <c r="E131" t="s">
-        <v>20</v>
+        <v>542</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
       <c r="H131" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B132" t="s">
-        <v>540</v>
-      </c>
-      <c r="C132" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E132" t="s">
         <v>20</v>
       </c>
-      <c r="F132" t="s">
-        <v>20</v>
-      </c>
       <c r="H132" t="s">
-        <v>188</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B133" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D133" t="s">
-        <v>544</v>
-      </c>
-      <c r="E133" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" t="s">
-        <v>20</v>
+        <v>548</v>
       </c>
       <c r="H133" t="s">
-        <v>545</v>
+        <v>460</v>
+      </c>
+      <c r="I133" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B134" t="s">
-        <v>547</v>
+        <v>550</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>551</v>
+      </c>
+      <c r="E134" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B135" t="s">
-        <v>549</v>
+        <v>553</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s">
+        <v>554</v>
+      </c>
+      <c r="E135" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
       </c>
       <c r="H135" t="s">
-        <v>131</v>
-      </c>
-      <c r="I135" t="s">
-        <v>550</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B136" t="s">
-        <v>551</v>
+        <v>556</v>
+      </c>
+      <c r="D136" t="s">
+        <v>557</v>
+      </c>
+      <c r="E136" t="s">
+        <v>20</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>131</v>
-      </c>
-      <c r="I136" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B137" t="s">
-        <v>553</v>
-      </c>
-      <c r="C137" t="s">
-        <v>18</v>
+        <v>560</v>
       </c>
       <c r="H137" t="s">
-        <v>127</v>
-      </c>
-      <c r="I137" t="s">
-        <v>554</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B138" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H138" t="s">
-        <v>122</v>
+        <v>144</v>
+      </c>
+      <c r="I138" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B139" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H139" t="s">
-        <v>559</v>
+        <v>144</v>
+      </c>
+      <c r="I139" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B140" t="s">
-        <v>561</v>
-      </c>
-      <c r="D140" t="s">
-        <v>562</v>
+        <v>566</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B141" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H141" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>570</v>
+      </c>
       <c r="B142" t="s">
-        <v>566</v>
-      </c>
-      <c r="F142" t="s">
-        <v>20</v>
+        <v>571</v>
       </c>
       <c r="H142" t="s">
-        <v>447</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>573</v>
+      </c>
       <c r="B143" t="s">
-        <v>567</v>
+        <v>574</v>
+      </c>
+      <c r="D143" t="s">
+        <v>575</v>
       </c>
       <c r="H143" t="s">
-        <v>568</v>
+        <v>69</v>
+      </c>
+      <c r="I143" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>577</v>
+      </c>
       <c r="B144" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="H144" t="s">
-        <v>509</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="2:9">
       <c r="B145" t="s">
-        <v>570</v>
+        <v>579</v>
+      </c>
+      <c r="F145" t="s">
+        <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
     </row>
     <row r="146" spans="2:9">
       <c r="B146" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="H146" t="s">
-        <v>399</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="2:9">
       <c r="B147" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="H147" t="s">
-        <v>399</v>
+        <v>522</v>
       </c>
     </row>
     <row r="148" spans="2:9">
       <c r="B148" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H148" t="s">
-        <v>574</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="2:9">
       <c r="B149" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="H149" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="2:9">
       <c r="B150" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="H150" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="2:9">
       <c r="B151" t="s">
-        <v>577</v>
-      </c>
-      <c r="E151" t="s">
-        <v>20</v>
-      </c>
-      <c r="F151" t="s">
-        <v>20</v>
+        <v>586</v>
       </c>
       <c r="H151" t="s">
-        <v>461</v>
-      </c>
-      <c r="I151" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="152" spans="2:9">
       <c r="B152" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="H152" t="s">
-        <v>580</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="2:9">
       <c r="B153" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="H153" t="s">
-        <v>353</v>
+        <v>470</v>
       </c>
     </row>
     <row r="154" spans="2:9">
       <c r="B154" t="s">
-        <v>582</v>
+        <v>590</v>
+      </c>
+      <c r="E154" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" t="s">
+        <v>20</v>
       </c>
       <c r="H154" t="s">
-        <v>320</v>
+        <v>474</v>
+      </c>
+      <c r="I154" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="155" spans="2:9">
       <c r="B155" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="H155" t="s">
-        <v>320</v>
+        <v>593</v>
       </c>
     </row>
     <row r="156" spans="2:9">
       <c r="B156" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="H156" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="2:9">
       <c r="B157" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="H157" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="2:9">
       <c r="B158" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="H158" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="2:9">
       <c r="B159" t="s">
-        <v>587</v>
-      </c>
-      <c r="F159" t="s">
-        <v>20</v>
+        <v>597</v>
       </c>
       <c r="H159" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
     </row>
     <row r="160" spans="2:9">
       <c r="B160" t="s">
-        <v>588</v>
-      </c>
-      <c r="E160" t="s">
-        <v>20</v>
-      </c>
-      <c r="F160" t="s">
-        <v>20</v>
+        <v>598</v>
       </c>
       <c r="H160" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9">
       <c r="B161" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="H161" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9">
+      <c r="B162" t="s">
+        <v>600</v>
+      </c>
+      <c r="F162" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
-      <c r="B162" t="s">
-        <v>590</v>
-      </c>
-      <c r="H162" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:9">
       <c r="B163" t="s">
-        <v>592</v>
+        <v>601</v>
+      </c>
+      <c r="E163" t="s">
+        <v>20</v>
       </c>
       <c r="F163" t="s">
         <v>20</v>
       </c>
       <c r="H163" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9">
       <c r="B164" t="s">
-        <v>594</v>
-      </c>
-      <c r="F164" t="s">
-        <v>20</v>
+        <v>602</v>
       </c>
       <c r="H164" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="2:10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9">
       <c r="B165" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H165" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9">
+      <c r="B166" t="s">
+        <v>605</v>
+      </c>
+      <c r="F166" t="s">
+        <v>20</v>
+      </c>
+      <c r="H166" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9">
+      <c r="B167" t="s">
+        <v>607</v>
+      </c>
+      <c r="F167" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9">
+      <c r="B168" t="s">
+        <v>608</v>
+      </c>
+      <c r="H168" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9">
+      <c r="B169" t="s">
+        <v>609</v>
+      </c>
+      <c r="H169" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9">
+      <c r="B170" t="s">
+        <v>610</v>
+      </c>
+      <c r="H170" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9">
+      <c r="B171" t="s">
+        <v>611</v>
+      </c>
+      <c r="H171" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9">
+      <c r="B172" t="s">
+        <v>613</v>
+      </c>
+      <c r="H172" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="B173" t="s">
+        <v>614</v>
+      </c>
+      <c r="H173" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="B174" t="s">
+        <v>615</v>
+      </c>
+      <c r="H174" t="s">
+        <v>572</v>
+      </c>
+      <c r="I174" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="B175" t="s">
+        <v>617</v>
+      </c>
+      <c r="H175" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9">
+      <c r="B176" t="s">
+        <v>619</v>
+      </c>
+      <c r="H176" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" t="s">
+        <v>620</v>
+      </c>
+      <c r="H177" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" t="s">
+        <v>621</v>
+      </c>
+      <c r="H178" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="2:10">
-      <c r="B166" t="s">
-        <v>596</v>
-      </c>
-      <c r="H166" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="167" spans="2:10">
-      <c r="B167" t="s">
-        <v>597</v>
-      </c>
-      <c r="H167" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="168" spans="2:10">
-      <c r="B168" t="s">
-        <v>598</v>
-      </c>
-      <c r="H168" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="169" spans="2:10">
-      <c r="B169" t="s">
-        <v>600</v>
-      </c>
-      <c r="H169" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="170" spans="2:10">
-      <c r="B170" t="s">
-        <v>601</v>
-      </c>
-      <c r="H170" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="171" spans="2:10">
-      <c r="B171" t="s">
-        <v>602</v>
-      </c>
-      <c r="H171" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="172" spans="2:10">
-      <c r="B172" t="s">
-        <v>603</v>
-      </c>
-      <c r="H172" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="173" spans="2:10">
-      <c r="B173" t="s">
-        <v>605</v>
-      </c>
-      <c r="H173" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="174" spans="2:10">
-      <c r="B174" t="s">
-        <v>606</v>
-      </c>
-      <c r="H174" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="175" spans="2:10">
-      <c r="B175" t="s">
-        <v>607</v>
-      </c>
-      <c r="H175" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="176" spans="2:10">
-      <c r="B176" t="s">
-        <v>608</v>
-      </c>
-      <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="H176" t="s">
-        <v>76</v>
-      </c>
-      <c r="J176" t="s">
-        <v>609</v>
+    <row r="179" spans="2:10">
+      <c r="B179" t="s">
+        <v>622</v>
+      </c>
+      <c r="F179" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" t="s">
+        <v>81</v>
+      </c>
+      <c r="J179" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5318,44 +5426,44 @@
     <hyperlink ref="B34" r:id="rId33"/>
     <hyperlink ref="B35" r:id="rId34"/>
     <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
     <hyperlink ref="B41" r:id="rId39"/>
     <hyperlink ref="B42" r:id="rId40"/>
     <hyperlink ref="B43" r:id="rId41"/>
-    <hyperlink ref="B45" r:id="rId42"/>
-    <hyperlink ref="B46" r:id="rId43"/>
-    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
     <hyperlink ref="B48" r:id="rId45"/>
     <hyperlink ref="B49" r:id="rId46"/>
-    <hyperlink ref="B53" r:id="rId47"/>
-    <hyperlink ref="B55" r:id="rId48"/>
-    <hyperlink ref="B56" r:id="rId49"/>
-    <hyperlink ref="B57" r:id="rId50"/>
+    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B51" r:id="rId48"/>
+    <hyperlink ref="B52" r:id="rId49"/>
+    <hyperlink ref="B56" r:id="rId50"/>
     <hyperlink ref="B58" r:id="rId51"/>
     <hyperlink ref="B59" r:id="rId52"/>
     <hyperlink ref="B60" r:id="rId53"/>
     <hyperlink ref="B61" r:id="rId54"/>
-    <hyperlink ref="B63" r:id="rId55"/>
-    <hyperlink ref="B64" r:id="rId56"/>
-    <hyperlink ref="B65" r:id="rId57"/>
+    <hyperlink ref="B62" r:id="rId55"/>
+    <hyperlink ref="B63" r:id="rId56"/>
+    <hyperlink ref="B64" r:id="rId57"/>
     <hyperlink ref="B66" r:id="rId58"/>
     <hyperlink ref="B67" r:id="rId59"/>
     <hyperlink ref="B68" r:id="rId60"/>
-    <hyperlink ref="B70" r:id="rId61"/>
-    <hyperlink ref="B71" r:id="rId62"/>
-    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B69" r:id="rId61"/>
+    <hyperlink ref="B70" r:id="rId62"/>
+    <hyperlink ref="B71" r:id="rId63"/>
     <hyperlink ref="B73" r:id="rId64"/>
     <hyperlink ref="B74" r:id="rId65"/>
     <hyperlink ref="B75" r:id="rId66"/>
     <hyperlink ref="B76" r:id="rId67"/>
     <hyperlink ref="B77" r:id="rId68"/>
     <hyperlink ref="B78" r:id="rId69"/>
-    <hyperlink ref="B80" r:id="rId70"/>
-    <hyperlink ref="B82" r:id="rId71"/>
-    <hyperlink ref="B83" r:id="rId72"/>
-    <hyperlink ref="B84" r:id="rId73"/>
+    <hyperlink ref="B79" r:id="rId70"/>
+    <hyperlink ref="B80" r:id="rId71"/>
+    <hyperlink ref="B81" r:id="rId72"/>
+    <hyperlink ref="B83" r:id="rId73"/>
     <hyperlink ref="B85" r:id="rId74"/>
     <hyperlink ref="B86" r:id="rId75"/>
     <hyperlink ref="B87" r:id="rId76"/>
@@ -5386,17 +5494,17 @@
     <hyperlink ref="B112" r:id="rId101"/>
     <hyperlink ref="B113" r:id="rId102"/>
     <hyperlink ref="B114" r:id="rId103"/>
-    <hyperlink ref="B116" r:id="rId104"/>
-    <hyperlink ref="B117" r:id="rId105"/>
-    <hyperlink ref="B118" r:id="rId106"/>
+    <hyperlink ref="B115" r:id="rId104"/>
+    <hyperlink ref="B116" r:id="rId105"/>
+    <hyperlink ref="B117" r:id="rId106"/>
     <hyperlink ref="B119" r:id="rId107"/>
     <hyperlink ref="B120" r:id="rId108"/>
     <hyperlink ref="B121" r:id="rId109"/>
     <hyperlink ref="B122" r:id="rId110"/>
     <hyperlink ref="B123" r:id="rId111"/>
-    <hyperlink ref="B125" r:id="rId112"/>
-    <hyperlink ref="B126" r:id="rId113"/>
-    <hyperlink ref="B127" r:id="rId114"/>
+    <hyperlink ref="B124" r:id="rId112"/>
+    <hyperlink ref="B125" r:id="rId113"/>
+    <hyperlink ref="B126" r:id="rId114"/>
     <hyperlink ref="B128" r:id="rId115"/>
     <hyperlink ref="B129" r:id="rId116"/>
     <hyperlink ref="B130" r:id="rId117"/>
@@ -5446,6 +5554,9 @@
     <hyperlink ref="B174" r:id="rId161"/>
     <hyperlink ref="B175" r:id="rId162"/>
     <hyperlink ref="B176" r:id="rId163"/>
+    <hyperlink ref="B177" r:id="rId164"/>
+    <hyperlink ref="B178" r:id="rId165"/>
+    <hyperlink ref="B179" r:id="rId166"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/publications.xlsx
+++ b/public/publications.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="731">
   <si>
     <t>doi</t>
   </si>
@@ -221,6 +221,39 @@
 </t>
   </si>
   <si>
+    <t>10.1016/j.ygcen.2018.08.011</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0016648018302375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stewart, N. D., Reilly, A., Gilman, C., Mastromonaco, G. F., &amp; Burness, G. (2018). Evidence of degradation of hair corticosterone in museum specimens. General and Comparative Endocrinology. doi:10.1016/j.ygcen.2018.08.011
+</t>
+  </si>
+  <si>
+    <t>2018-08-14</t>
+  </si>
+  <si>
+    <t>10.1898/NWN17-30.1</t>
+  </si>
+  <si>
+    <t>http://www.bioone.org/doi/abs/10.1898/NWN17-30.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sealy, S. G. (2018). Revisiting Evidence for Historic Presence of Northwestern Deermouse (Peromyscus keeni) on Langara Island, Haida Gwaii, British Columbia. Northwestern Naturalist, 99(2), 124–129. doi:10.1898/nwn17-30.1
+</t>
+  </si>
+  <si>
+    <t>10.1898/NWN17-20.1</t>
+  </si>
+  <si>
+    <t>http://www.bioone.org/doi/abs/10.1898/NWN17-20.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dekker, D., &amp; Drever, M. C. (2018). Mule Deer, White-Tailed Deer, and Wolves in Jasper National Park, Alberta: 35 Years of Sightings, 1981–2016. Northwestern Naturalist, 99(2), 93–100. doi:10.1898/nwn17-20.1
+</t>
+  </si>
+  <si>
     <t>10.3390/geosciences8080276</t>
   </si>
   <si>
@@ -449,6 +482,29 @@
   <si>
     <t xml:space="preserve">Barlow, J., França, F., Gardner, T. A., Hicks, C. C., Lennox, G. D., Berenguer, E., … Graham, N. A. J. (2018). The future of hyperdiverse tropical ecosystems. Nature, 559(7715), 517–526. doi:10.1038/s41586-018-0301-1
 </t>
+  </si>
+  <si>
+    <t>10.4289/0013-8797.120.3.616</t>
+  </si>
+  <si>
+    <t>http://www.bioone.org/doi/abs/10.4289/0013-8797.120.3.616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitehead, D. R., Chamorro, M. L., &amp; Anderson, R. S. (2018). An Illustrated Key to the Species of Curculio Linnaeus (Coleoptera: Curculionidae) of North America East of the Mississippi River. Proceedings of the Entomological Society of Washington, 120(3), 616–641. doi:10.4289/0013-8797.120.3.616
+</t>
+  </si>
+  <si>
+    <t>10.4289/0013-8797.120.3.533</t>
+  </si>
+  <si>
+    <t>http://www.bioone.org/doi/abs/10.4289/0013-8797.120.3.533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry, T. J., &amp; Brailovsky, H. (2018). A New Species of the Lace Bug Genus Acalypta (Hemiptera: Heteroptera: Tingidae) from Guatemala, and a Spectacular New Related Genus and New Species from Mexico. Proceedings of the Entomological Society of Washington, 120(3), 533–542. doi:10.4289/0013-8797.120.3.533
+</t>
+  </si>
+  <si>
+    <t>NC 27401</t>
   </si>
   <si>
     <t>10.1126/science.aat9844</t>
@@ -2293,6 +2349,9 @@
   </si>
   <si>
     <t>http://centerforsystematicentomology.org/insectamundi/PDF-download.asp?FileName=0646_GenierandCupello_2018.pdf</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/pdf/j.ctt16gzgng.41.pdf</t>
   </si>
   <si>
     <t>http://www.jeaniron.ca/2017/Eur_Gull.pdf</t>
@@ -2655,7 +2714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2934,17 +2993,14 @@
       <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" t="s">
         <v>66</v>
       </c>
       <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
         <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2958,135 +3014,135 @@
         <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
+      <c r="F16" t="s">
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
         <v>86</v>
       </c>
-      <c r="B19" t="s">
+      <c r="H19" t="s">
         <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" t="s">
+      <c r="G20" t="s">
         <v>91</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>93</v>
-      </c>
       <c r="H20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
         <v>99</v>
@@ -3097,45 +3153,42 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" t="s">
         <v>105</v>
-      </c>
-      <c r="G23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
         <v>108</v>
       </c>
-      <c r="D24" t="s">
-        <v>105</v>
-      </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3145,242 +3198,254 @@
       <c r="B25" t="s">
         <v>111</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
       <c r="D25" t="s">
         <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="B26" t="s">
+      <c r="G26" t="s">
         <v>116</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" t="s">
         <v>117</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="I27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" t="s">
         <v>124</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" t="s">
         <v>129</v>
-      </c>
-      <c r="B29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
         <v>132</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
         <v>135</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>136</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" t="s">
         <v>137</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>138</v>
-      </c>
-      <c r="H31" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>141</v>
       </c>
-      <c r="D32" t="s">
-        <v>142</v>
+      <c r="E32" t="s">
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
         <v>144</v>
       </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" t="s">
-        <v>146</v>
-      </c>
       <c r="G33" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>67</v>
+      </c>
+      <c r="I35" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
         <v>160</v>
@@ -3391,173 +3456,170 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" t="s">
         <v>164</v>
       </c>
-      <c r="B38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" t="s">
-        <v>168</v>
-      </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H41" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G42" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H42" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H43" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G44" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" t="s">
         <v>194</v>
       </c>
-      <c r="B45" t="s">
+      <c r="H45" t="s">
         <v>195</v>
-      </c>
-      <c r="D45" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s">
         <v>198</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
         <v>199</v>
       </c>
-      <c r="D46" t="s">
+      <c r="H46" t="s">
         <v>200</v>
-      </c>
-      <c r="G46" t="s">
-        <v>182</v>
-      </c>
-      <c r="H46" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3567,257 +3629,263 @@
       <c r="B47" t="s">
         <v>202</v>
       </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
       <c r="D47" t="s">
         <v>203</v>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
-      </c>
-      <c r="I47" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" t="s">
         <v>207</v>
-      </c>
-      <c r="B48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>204</v>
-      </c>
-      <c r="H48" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
         <v>210</v>
       </c>
-      <c r="B49" t="s">
-        <v>211</v>
-      </c>
-      <c r="D49" t="s">
-        <v>212</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
       <c r="G49" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
-      </c>
-      <c r="J49" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G51" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="G52" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H52" t="s">
-        <v>213</v>
-      </c>
-      <c r="J52" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="I52" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H53" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
       </c>
       <c r="G54" t="s">
+        <v>230</v>
+      </c>
+      <c r="H54" t="s">
+        <v>230</v>
+      </c>
+      <c r="J54" t="s">
         <v>231</v>
-      </c>
-      <c r="H54" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H55" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s">
-        <v>246</v>
+        <v>241</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>242</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>168</v>
+        <v>230</v>
+      </c>
+      <c r="J57" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" t="s">
+        <v>247</v>
+      </c>
+      <c r="G58" t="s">
         <v>248</v>
       </c>
-      <c r="B58" t="s">
+      <c r="H58" t="s">
         <v>249</v>
-      </c>
-      <c r="D58" t="s">
-        <v>250</v>
-      </c>
-      <c r="G58" t="s">
-        <v>240</v>
-      </c>
-      <c r="H58" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" t="s">
         <v>251</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>252</v>
       </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
+        <v>248</v>
+      </c>
+      <c r="H59" t="s">
+        <v>230</v>
+      </c>
+      <c r="I59" t="s">
         <v>253</v>
-      </c>
-      <c r="G59" t="s">
-        <v>240</v>
-      </c>
-      <c r="H59" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3827,48 +3895,51 @@
       <c r="B60" t="s">
         <v>255</v>
       </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
       <c r="D60" t="s">
         <v>256</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" t="s">
+        <v>261</v>
+      </c>
+      <c r="G61" t="s">
         <v>257</v>
       </c>
-      <c r="B61" t="s">
-        <v>258</v>
-      </c>
-      <c r="D61" t="s">
-        <v>259</v>
-      </c>
-      <c r="G61" t="s">
-        <v>260</v>
-      </c>
       <c r="H61" t="s">
-        <v>232</v>
-      </c>
-      <c r="I61" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>262</v>
       </c>
+      <c r="B62" t="s">
+        <v>263</v>
+      </c>
       <c r="D62" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H62" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3882,514 +3953,508 @@
         <v>267</v>
       </c>
       <c r="G63" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
         <v>270</v>
       </c>
-      <c r="B64" t="s">
-        <v>271</v>
-      </c>
-      <c r="D64" t="s">
-        <v>272</v>
-      </c>
       <c r="G64" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="H64" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
-      </c>
-      <c r="E65" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="G65" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="H65" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B66" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G66" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H66" t="s">
-        <v>283</v>
+        <v>249</v>
+      </c>
+      <c r="I66" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>284</v>
-      </c>
-      <c r="B67" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H67" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
-        <v>289</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="G68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H68" t="s">
-        <v>290</v>
-      </c>
-      <c r="J68" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>292</v>
+        <v>287</v>
+      </c>
+      <c r="B69" t="s">
+        <v>288</v>
       </c>
       <c r="D69" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G69" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H69" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" t="s">
+        <v>292</v>
+      </c>
+      <c r="D70" t="s">
+        <v>293</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
         <v>294</v>
       </c>
-      <c r="B70" t="s">
+      <c r="H70" t="s">
         <v>295</v>
-      </c>
-      <c r="D70" t="s">
-        <v>296</v>
-      </c>
-      <c r="G70" t="s">
-        <v>282</v>
-      </c>
-      <c r="H70" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
+        <v>296</v>
+      </c>
+      <c r="B71" t="s">
         <v>297</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>298</v>
       </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
         <v>299</v>
       </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>300</v>
-      </c>
-      <c r="H71" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" t="s">
         <v>302</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>303</v>
       </c>
-      <c r="D72" t="s">
-        <v>304</v>
-      </c>
       <c r="G72" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H72" t="s">
-        <v>306</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>306</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>299</v>
+      </c>
+      <c r="H73" t="s">
         <v>307</v>
       </c>
-      <c r="B73" t="s">
+      <c r="J73" t="s">
         <v>308</v>
-      </c>
-      <c r="D73" t="s">
-        <v>309</v>
-      </c>
-      <c r="G73" t="s">
-        <v>310</v>
-      </c>
-      <c r="H73" t="s">
-        <v>306</v>
-      </c>
-      <c r="J73" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>312</v>
-      </c>
-      <c r="B74" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D74" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G74" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="H74" t="s">
-        <v>316</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
-      </c>
-      <c r="C75" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="D75" t="s">
-        <v>319</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="G75" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="H75" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B76" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D76" t="s">
-        <v>324</v>
+        <v>316</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H76" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>327</v>
-      </c>
-      <c r="C77" t="s">
-        <v>328</v>
+        <v>319</v>
+      </c>
+      <c r="B77" t="s">
+        <v>320</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G77" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H77" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+      <c r="B78" t="s">
+        <v>325</v>
       </c>
       <c r="D78" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G78" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H78" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="J78" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="B79" t="s">
+        <v>330</v>
       </c>
       <c r="D79" t="s">
-        <v>335</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="G79" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H79" t="s">
-        <v>218</v>
-      </c>
-      <c r="I79" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" t="s">
+        <v>335</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>336</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>337</v>
+      </c>
+      <c r="H80" t="s">
         <v>338</v>
-      </c>
-      <c r="B80" t="s">
-        <v>339</v>
-      </c>
-      <c r="D80" t="s">
-        <v>340</v>
-      </c>
-      <c r="G80" t="s">
-        <v>341</v>
-      </c>
-      <c r="H80" t="s">
-        <v>342</v>
-      </c>
-      <c r="I80" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>344</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
+        <v>339</v>
+      </c>
+      <c r="B81" t="s">
+        <v>340</v>
       </c>
       <c r="D81" t="s">
-        <v>345</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="G81" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H81" t="s">
-        <v>218</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>347</v>
-      </c>
-      <c r="B82" t="s">
-        <v>348</v>
+        <v>344</v>
+      </c>
+      <c r="C82" t="s">
+        <v>345</v>
       </c>
       <c r="D82" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G82" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H82" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>352</v>
-      </c>
-      <c r="B83" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D83" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G83" t="s">
+        <v>349</v>
+      </c>
+      <c r="H83" t="s">
+        <v>258</v>
+      </c>
+      <c r="J83" t="s">
         <v>350</v>
-      </c>
-      <c r="H83" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>356</v>
-      </c>
-      <c r="B84" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D84" t="s">
-        <v>358</v>
+        <v>352</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H84" t="s">
-        <v>326</v>
+        <v>235</v>
+      </c>
+      <c r="I84" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B85" t="s">
+        <v>356</v>
+      </c>
+      <c r="D85" t="s">
+        <v>357</v>
+      </c>
+      <c r="G85" t="s">
+        <v>358</v>
+      </c>
+      <c r="H85" t="s">
         <v>359</v>
       </c>
-      <c r="B85" t="s">
+      <c r="I85" t="s">
         <v>360</v>
-      </c>
-      <c r="D85" t="s">
-        <v>361</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>350</v>
-      </c>
-      <c r="H85" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
+        <v>361</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
         <v>362</v>
       </c>
-      <c r="B86" t="s">
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
         <v>363</v>
       </c>
-      <c r="D86" t="s">
-        <v>364</v>
-      </c>
-      <c r="G86" t="s">
-        <v>350</v>
-      </c>
       <c r="H86" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
+        <v>364</v>
+      </c>
+      <c r="B87" t="s">
         <v>365</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>366</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
         <v>367</v>
       </c>
-      <c r="G87" t="s">
-        <v>350</v>
-      </c>
       <c r="H87" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D88" t="s">
-        <v>370</v>
-      </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="G88" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H88" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>371</v>
+        <v>373</v>
+      </c>
+      <c r="B89" t="s">
+        <v>374</v>
       </c>
       <c r="D89" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G89" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H89" t="s">
-        <v>218</v>
-      </c>
-      <c r="I89" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B90" t="s">
-        <v>375</v>
-      </c>
-      <c r="C90" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D90" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="H90" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4399,524 +4464,530 @@
       <c r="B91" t="s">
         <v>380</v>
       </c>
-      <c r="C91" t="s">
-        <v>376</v>
-      </c>
       <c r="D91" t="s">
         <v>381</v>
       </c>
       <c r="G91" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="H91" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
+        <v>382</v>
+      </c>
+      <c r="B92" t="s">
         <v>383</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>384</v>
       </c>
-      <c r="D92" t="s">
-        <v>385</v>
-      </c>
       <c r="G92" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="H92" t="s">
-        <v>387</v>
-      </c>
-      <c r="J92" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D93" t="s">
-        <v>391</v>
+        <v>387</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="H93" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>393</v>
-      </c>
-      <c r="B94" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D94" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G94" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="H94" t="s">
-        <v>397</v>
+        <v>235</v>
       </c>
       <c r="I94" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B95" t="s">
-        <v>400</v>
+        <v>392</v>
+      </c>
+      <c r="C95" t="s">
+        <v>393</v>
       </c>
       <c r="D95" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G95" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H95" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
+        <v>396</v>
+      </c>
+      <c r="B96" t="s">
+        <v>397</v>
+      </c>
+      <c r="C96" t="s">
+        <v>393</v>
+      </c>
+      <c r="D96" t="s">
+        <v>398</v>
+      </c>
+      <c r="G96" t="s">
+        <v>395</v>
+      </c>
+      <c r="H96" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>400</v>
+      </c>
+      <c r="B97" t="s">
+        <v>401</v>
+      </c>
+      <c r="D97" t="s">
+        <v>402</v>
+      </c>
+      <c r="G97" t="s">
         <v>403</v>
       </c>
-      <c r="C96" t="s">
+      <c r="H97" t="s">
+        <v>404</v>
+      </c>
+      <c r="J97" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>406</v>
+      </c>
+      <c r="B98" t="s">
+        <v>407</v>
+      </c>
+      <c r="D98" t="s">
+        <v>408</v>
+      </c>
+      <c r="G98" t="s">
+        <v>409</v>
+      </c>
+      <c r="H98" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>410</v>
+      </c>
+      <c r="B99" t="s">
+        <v>411</v>
+      </c>
+      <c r="D99" t="s">
+        <v>412</v>
+      </c>
+      <c r="G99" t="s">
+        <v>413</v>
+      </c>
+      <c r="H99" t="s">
+        <v>414</v>
+      </c>
+      <c r="I99" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>416</v>
+      </c>
+      <c r="B100" t="s">
+        <v>417</v>
+      </c>
+      <c r="D100" t="s">
+        <v>418</v>
+      </c>
+      <c r="G100" t="s">
+        <v>419</v>
+      </c>
+      <c r="H100" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
+        <v>420</v>
+      </c>
+      <c r="C101" t="s">
         <v>12</v>
       </c>
-      <c r="D96" t="s">
-        <v>404</v>
-      </c>
-      <c r="G96" t="s">
-        <v>402</v>
-      </c>
-      <c r="H96" t="s">
-        <v>346</v>
-      </c>
-      <c r="I96" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s">
-        <v>406</v>
-      </c>
-      <c r="B97" t="s">
-        <v>407</v>
-      </c>
-      <c r="D97" t="s">
-        <v>408</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>409</v>
-      </c>
-      <c r="H97" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
-        <v>410</v>
-      </c>
-      <c r="B98" t="s">
-        <v>411</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D101" t="s">
+        <v>421</v>
+      </c>
+      <c r="G101" t="s">
+        <v>419</v>
+      </c>
+      <c r="H101" t="s">
+        <v>363</v>
+      </c>
+      <c r="I101" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" t="s">
+        <v>424</v>
+      </c>
+      <c r="D102" t="s">
+        <v>425</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>426</v>
+      </c>
+      <c r="H102" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" t="s">
         <v>12</v>
       </c>
-      <c r="D98" t="s">
-        <v>412</v>
-      </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>413</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="D103" t="s">
+        <v>429</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>430</v>
+      </c>
+      <c r="H103" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>432</v>
+      </c>
+      <c r="B104" t="s">
+        <v>433</v>
+      </c>
+      <c r="D104" t="s">
+        <v>434</v>
+      </c>
+      <c r="G104" t="s">
+        <v>435</v>
+      </c>
+      <c r="H104" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
+        <v>437</v>
+      </c>
+      <c r="B105" t="s">
+        <v>438</v>
+      </c>
+      <c r="D105" t="s">
+        <v>439</v>
+      </c>
+      <c r="G105" t="s">
+        <v>440</v>
+      </c>
+      <c r="H105" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>415</v>
-      </c>
-      <c r="B99" t="s">
-        <v>416</v>
-      </c>
-      <c r="D99" t="s">
-        <v>417</v>
-      </c>
-      <c r="G99" t="s">
-        <v>418</v>
-      </c>
-      <c r="H99" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>420</v>
-      </c>
-      <c r="B100" t="s">
-        <v>421</v>
-      </c>
-      <c r="D100" t="s">
-        <v>422</v>
-      </c>
-      <c r="G100" t="s">
-        <v>423</v>
-      </c>
-      <c r="H100" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>424</v>
-      </c>
-      <c r="B101" t="s">
-        <v>425</v>
-      </c>
-      <c r="D101" t="s">
-        <v>426</v>
-      </c>
-      <c r="G101" t="s">
-        <v>423</v>
-      </c>
-      <c r="H101" t="s">
-        <v>386</v>
-      </c>
-      <c r="I101" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" t="s">
-        <v>428</v>
-      </c>
-      <c r="B102" t="s">
-        <v>429</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
+        <v>441</v>
+      </c>
+      <c r="B106" t="s">
+        <v>442</v>
+      </c>
+      <c r="D106" t="s">
+        <v>443</v>
+      </c>
+      <c r="G106" t="s">
+        <v>440</v>
+      </c>
+      <c r="H106" t="s">
+        <v>403</v>
+      </c>
+      <c r="I106" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" t="s">
+        <v>446</v>
+      </c>
+      <c r="C107" t="s">
         <v>12</v>
       </c>
-      <c r="D102" t="s">
-        <v>430</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>423</v>
-      </c>
-      <c r="H102" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" t="s">
-        <v>431</v>
-      </c>
-      <c r="B103" t="s">
-        <v>432</v>
-      </c>
-      <c r="D103" t="s">
-        <v>433</v>
-      </c>
-      <c r="G103" t="s">
-        <v>423</v>
-      </c>
-      <c r="H103" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" t="s">
-        <v>434</v>
-      </c>
-      <c r="D104" t="s">
-        <v>435</v>
-      </c>
-      <c r="G104" t="s">
-        <v>423</v>
-      </c>
-      <c r="H104" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" t="s">
-        <v>436</v>
-      </c>
-      <c r="B105" t="s">
-        <v>437</v>
-      </c>
-      <c r="D105" t="s">
-        <v>438</v>
-      </c>
-      <c r="G105" t="s">
-        <v>423</v>
-      </c>
-      <c r="H105" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
+      <c r="D107" t="s">
+        <v>447</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
         <v>440</v>
       </c>
-      <c r="B106" t="s">
-        <v>441</v>
-      </c>
-      <c r="D106" t="s">
-        <v>442</v>
-      </c>
-      <c r="G106" t="s">
-        <v>423</v>
-      </c>
-      <c r="H106" t="s">
-        <v>396</v>
-      </c>
-      <c r="I106" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
-        <v>444</v>
-      </c>
-      <c r="D107" t="s">
-        <v>445</v>
-      </c>
-      <c r="G107" t="s">
-        <v>446</v>
-      </c>
       <c r="H107" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B108" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D108" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G108" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H108" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>450</v>
-      </c>
-      <c r="B109" t="s">
         <v>451</v>
       </c>
       <c r="D109" t="s">
         <v>452</v>
       </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
       <c r="G109" t="s">
+        <v>440</v>
+      </c>
+      <c r="H109" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
         <v>453</v>
       </c>
-      <c r="H109" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
         <v>454</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>455</v>
       </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="G110" t="s">
+        <v>440</v>
+      </c>
+      <c r="H110" t="s">
         <v>456</v>
       </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" t="s">
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
         <v>457</v>
       </c>
-      <c r="I110" t="s">
+      <c r="B111" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
+      <c r="D111" t="s">
         <v>459</v>
       </c>
-      <c r="B111" t="s">
+      <c r="G111" t="s">
+        <v>440</v>
+      </c>
+      <c r="H111" t="s">
+        <v>413</v>
+      </c>
+      <c r="I111" t="s">
         <v>460</v>
       </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" t="s">
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
         <v>461</v>
       </c>
-      <c r="G111" t="s">
+      <c r="D112" t="s">
         <v>462</v>
       </c>
-      <c r="H111" t="s">
-        <v>25</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="G112" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" t="s">
-        <v>464</v>
-      </c>
-      <c r="B112" t="s">
-        <v>465</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" t="s">
-        <v>466</v>
-      </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>467</v>
-      </c>
       <c r="H112" t="s">
-        <v>382</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B113" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D113" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G113" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H113" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B114" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D114" t="s">
-        <v>475</v>
-      </c>
-      <c r="F114" t="s">
+        <v>469</v>
+      </c>
+      <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H114" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B115" t="s">
-        <v>478</v>
+        <v>472</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G115" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
-        <v>326</v>
+        <v>474</v>
+      </c>
+      <c r="I115" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B116" t="s">
-        <v>482</v>
+        <v>477</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G116" t="s">
+        <v>479</v>
+      </c>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s">
         <v>480</v>
-      </c>
-      <c r="H116" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
+        <v>481</v>
+      </c>
+      <c r="B117" t="s">
+        <v>482</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>483</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
         <v>484</v>
       </c>
-      <c r="B117" t="s">
-        <v>485</v>
-      </c>
-      <c r="D117" t="s">
-        <v>486</v>
-      </c>
-      <c r="G117" t="s">
-        <v>480</v>
-      </c>
       <c r="H117" t="s">
-        <v>290</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
+        <v>485</v>
+      </c>
+      <c r="B118" t="s">
+        <v>486</v>
+      </c>
+      <c r="D118" t="s">
         <v>487</v>
       </c>
-      <c r="B118" t="s">
+      <c r="G118" t="s">
         <v>488</v>
       </c>
-      <c r="D118" t="s">
+      <c r="H118" t="s">
         <v>489</v>
-      </c>
-      <c r="G118" t="s">
-        <v>480</v>
-      </c>
-      <c r="H118" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4929,11 +5000,14 @@
       <c r="D119" t="s">
         <v>492</v>
       </c>
-      <c r="G119">
-        <v>2018</v>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>493</v>
       </c>
       <c r="H119" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4946,51 +5020,45 @@
       <c r="D120" t="s">
         <v>496</v>
       </c>
-      <c r="G120">
-        <v>2018</v>
+      <c r="G120" t="s">
+        <v>497</v>
       </c>
       <c r="H120" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
+        <v>498</v>
+      </c>
+      <c r="B121" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" t="s">
+        <v>500</v>
+      </c>
+      <c r="G121" t="s">
         <v>497</v>
       </c>
-      <c r="B121" t="s">
-        <v>498</v>
-      </c>
-      <c r="C121" t="s">
-        <v>376</v>
-      </c>
-      <c r="D121" t="s">
-        <v>499</v>
-      </c>
-      <c r="G121">
-        <v>2018</v>
-      </c>
       <c r="H121" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B122" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D122" t="s">
-        <v>502</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122">
-        <v>2018</v>
+        <v>503</v>
+      </c>
+      <c r="G122" t="s">
+        <v>497</v>
       </c>
       <c r="H122" t="s">
-        <v>503</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5003,11 +5071,11 @@
       <c r="D123" t="s">
         <v>506</v>
       </c>
-      <c r="G123">
-        <v>2018</v>
+      <c r="G123" t="s">
+        <v>497</v>
       </c>
       <c r="H123" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5024,24 +5092,24 @@
         <v>2018</v>
       </c>
       <c r="H124" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B125" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D125" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G125">
         <v>2018</v>
       </c>
       <c r="H125" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5051,17 +5119,17 @@
       <c r="B126" t="s">
         <v>515</v>
       </c>
+      <c r="C126" t="s">
+        <v>393</v>
+      </c>
       <c r="D126" t="s">
         <v>516</v>
       </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
       <c r="G126">
         <v>2018</v>
       </c>
       <c r="H126" t="s">
-        <v>382</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5071,359 +5139,347 @@
       <c r="B127" t="s">
         <v>518</v>
       </c>
-      <c r="C127" t="s">
-        <v>12</v>
-      </c>
       <c r="D127" t="s">
         <v>519</v>
       </c>
-      <c r="G127" t="s">
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127">
+        <v>2018</v>
+      </c>
+      <c r="H127" t="s">
         <v>520</v>
-      </c>
-      <c r="H127" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
+        <v>521</v>
+      </c>
+      <c r="B128" t="s">
         <v>522</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>523</v>
       </c>
-      <c r="C128" t="s">
-        <v>524</v>
-      </c>
-      <c r="D128" t="s">
-        <v>525</v>
-      </c>
-      <c r="G128" t="s">
-        <v>526</v>
+      <c r="G128">
+        <v>2018</v>
       </c>
       <c r="H128" t="s">
-        <v>527</v>
-      </c>
-      <c r="I128" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B129" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D129" t="s">
-        <v>531</v>
-      </c>
-      <c r="G129" t="s">
-        <v>532</v>
+        <v>526</v>
+      </c>
+      <c r="G129">
+        <v>2018</v>
       </c>
       <c r="H129" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B130" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D130" t="s">
-        <v>536</v>
-      </c>
-      <c r="E130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>537</v>
+        <v>529</v>
+      </c>
+      <c r="G130">
+        <v>2018</v>
       </c>
       <c r="H130" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B131" t="s">
-        <v>539</v>
-      </c>
-      <c r="C131" t="s">
-        <v>12</v>
+        <v>532</v>
       </c>
       <c r="D131" t="s">
-        <v>540</v>
-      </c>
-      <c r="G131" t="s">
-        <v>541</v>
+        <v>533</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131">
+        <v>2018</v>
       </c>
       <c r="H131" t="s">
-        <v>241</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B132" t="s">
-        <v>543</v>
+        <v>535</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G132" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H132" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B133" t="s">
-        <v>548</v>
+        <v>540</v>
+      </c>
+      <c r="C133" t="s">
+        <v>541</v>
       </c>
       <c r="D133" t="s">
-        <v>549</v>
-      </c>
-      <c r="E133" t="s">
-        <v>14</v>
+        <v>542</v>
       </c>
       <c r="G133" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H133" t="s">
-        <v>551</v>
-      </c>
-      <c r="J133" t="s">
-        <v>552</v>
+        <v>544</v>
+      </c>
+      <c r="I133" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B134" t="s">
-        <v>554</v>
-      </c>
-      <c r="C134" t="s">
-        <v>12</v>
+        <v>547</v>
       </c>
       <c r="D134" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G134" t="s">
+        <v>549</v>
+      </c>
+      <c r="H134" t="s">
         <v>550</v>
-      </c>
-      <c r="H134" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>556</v>
+        <v>551</v>
+      </c>
+      <c r="B135" t="s">
+        <v>552</v>
       </c>
       <c r="D135" t="s">
-        <v>557</v>
+        <v>553</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
       </c>
       <c r="G135" t="s">
+        <v>554</v>
+      </c>
+      <c r="H135" t="s">
         <v>550</v>
-      </c>
-      <c r="H135" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
+        <v>555</v>
+      </c>
+      <c r="B136" t="s">
+        <v>556</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>557</v>
+      </c>
+      <c r="G136" t="s">
         <v>558</v>
       </c>
-      <c r="B136" t="s">
-        <v>559</v>
-      </c>
-      <c r="D136" t="s">
-        <v>560</v>
-      </c>
-      <c r="G136" t="s">
-        <v>550</v>
-      </c>
       <c r="H136" t="s">
-        <v>546</v>
-      </c>
-      <c r="I136" t="s">
-        <v>561</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
+        <v>559</v>
+      </c>
+      <c r="B137" t="s">
+        <v>560</v>
+      </c>
+      <c r="D137" t="s">
+        <v>561</v>
+      </c>
+      <c r="G137" t="s">
         <v>562</v>
       </c>
-      <c r="B137" t="s">
+      <c r="H137" t="s">
         <v>563</v>
-      </c>
-      <c r="C137" t="s">
-        <v>166</v>
-      </c>
-      <c r="D137" t="s">
-        <v>564</v>
-      </c>
-      <c r="G137" t="s">
-        <v>550</v>
-      </c>
-      <c r="H137" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
+        <v>564</v>
+      </c>
+      <c r="B138" t="s">
+        <v>565</v>
+      </c>
+      <c r="D138" t="s">
         <v>566</v>
       </c>
-      <c r="B138" t="s">
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
         <v>567</v>
       </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="H138" t="s">
         <v>568</v>
       </c>
-      <c r="E138" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>550</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="J138" t="s">
         <v>569</v>
-      </c>
-      <c r="I138" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
+        <v>570</v>
+      </c>
+      <c r="B139" t="s">
         <v>571</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
         <v>572</v>
       </c>
-      <c r="D139" t="s">
-        <v>573</v>
-      </c>
       <c r="G139" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="H139" t="s">
-        <v>574</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>575</v>
-      </c>
-      <c r="B140" t="s">
-        <v>576</v>
-      </c>
-      <c r="C140" t="s">
-        <v>12</v>
+        <v>573</v>
       </c>
       <c r="D140" t="s">
-        <v>577</v>
-      </c>
-      <c r="F140" t="s">
-        <v>14</v>
+        <v>574</v>
       </c>
       <c r="G140" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="H140" t="s">
-        <v>574</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
+        <v>575</v>
+      </c>
+      <c r="B141" t="s">
+        <v>576</v>
+      </c>
+      <c r="D141" t="s">
+        <v>577</v>
+      </c>
+      <c r="G141" t="s">
+        <v>567</v>
+      </c>
+      <c r="H141" t="s">
+        <v>563</v>
+      </c>
+      <c r="I141" t="s">
         <v>578</v>
-      </c>
-      <c r="B141" t="s">
-        <v>579</v>
-      </c>
-      <c r="D141" t="s">
-        <v>580</v>
-      </c>
-      <c r="G141" t="s">
-        <v>550</v>
-      </c>
-      <c r="H141" t="s">
-        <v>521</v>
-      </c>
-      <c r="I141" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
+        <v>579</v>
+      </c>
+      <c r="B142" t="s">
+        <v>580</v>
+      </c>
+      <c r="C142" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" t="s">
+        <v>581</v>
+      </c>
+      <c r="G142" t="s">
+        <v>567</v>
+      </c>
+      <c r="H142" t="s">
         <v>582</v>
-      </c>
-      <c r="B142" t="s">
-        <v>583</v>
-      </c>
-      <c r="D142" t="s">
-        <v>584</v>
-      </c>
-      <c r="E142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>550</v>
-      </c>
-      <c r="H142" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>371</v>
+        <v>583</v>
       </c>
       <c r="B143" t="s">
+        <v>584</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
         <v>585</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>567</v>
+      </c>
+      <c r="H143" t="s">
         <v>586</v>
       </c>
-      <c r="G143" t="s">
-        <v>503</v>
-      </c>
-      <c r="H143" t="s">
-        <v>533</v>
-      </c>
       <c r="I143" t="s">
-        <v>373</v>
+        <v>587</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B144" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D144" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G144" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="H144" t="s">
-        <v>551</v>
-      </c>
-      <c r="I144" t="s">
         <v>591</v>
       </c>
     </row>
@@ -5434,375 +5490,396 @@
       <c r="B145" t="s">
         <v>593</v>
       </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
       <c r="D145" t="s">
         <v>594</v>
       </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
       <c r="G145" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="H145" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
+        <v>595</v>
+      </c>
+      <c r="B146" t="s">
+        <v>596</v>
+      </c>
+      <c r="D146" t="s">
         <v>597</v>
       </c>
-      <c r="B146" t="s">
+      <c r="G146" t="s">
+        <v>567</v>
+      </c>
+      <c r="H146" t="s">
+        <v>538</v>
+      </c>
+      <c r="I146" t="s">
         <v>598</v>
-      </c>
-      <c r="D146" t="s">
-        <v>599</v>
-      </c>
-      <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>600</v>
-      </c>
-      <c r="H146" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
+        <v>599</v>
+      </c>
+      <c r="B147" t="s">
+        <v>600</v>
+      </c>
+      <c r="D147" t="s">
         <v>601</v>
       </c>
-      <c r="B147" t="s">
-        <v>602</v>
-      </c>
-      <c r="D147" t="s">
-        <v>603</v>
+      <c r="E147" t="s">
+        <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="H147" t="s">
-        <v>551</v>
-      </c>
-      <c r="I147" t="s">
-        <v>604</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>605</v>
+        <v>388</v>
       </c>
       <c r="B148" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D148" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G148" t="s">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="H148" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I148" t="s">
-        <v>608</v>
+        <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>609</v>
+        <v>604</v>
+      </c>
+      <c r="B149" t="s">
+        <v>605</v>
       </c>
       <c r="D149" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G149" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="H149" t="s">
-        <v>241</v>
-      </c>
-      <c r="J149" t="s">
-        <v>611</v>
+        <v>568</v>
+      </c>
+      <c r="I149" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
+        <v>609</v>
+      </c>
+      <c r="B150" t="s">
+        <v>610</v>
+      </c>
+      <c r="D150" t="s">
+        <v>611</v>
+      </c>
+      <c r="G150" t="s">
         <v>612</v>
       </c>
-      <c r="B150" t="s">
+      <c r="H150" t="s">
         <v>613</v>
-      </c>
-      <c r="D150" t="s">
-        <v>614</v>
-      </c>
-      <c r="E150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>600</v>
-      </c>
-      <c r="H150" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
+        <v>614</v>
+      </c>
+      <c r="B151" t="s">
+        <v>615</v>
+      </c>
+      <c r="D151" t="s">
         <v>616</v>
       </c>
-      <c r="B151" t="s">
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
         <v>617</v>
       </c>
-      <c r="D151" t="s">
-        <v>618</v>
-      </c>
-      <c r="G151" t="s">
-        <v>600</v>
-      </c>
       <c r="H151" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
+        <v>618</v>
+      </c>
+      <c r="B152" t="s">
         <v>619</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>620</v>
       </c>
-      <c r="D152" t="s">
+      <c r="G152" t="s">
+        <v>617</v>
+      </c>
+      <c r="H152" t="s">
+        <v>568</v>
+      </c>
+      <c r="I152" t="s">
         <v>621</v>
-      </c>
-      <c r="G152" t="s">
-        <v>622</v>
-      </c>
-      <c r="H152" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
+        <v>622</v>
+      </c>
+      <c r="B153" t="s">
         <v>623</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>624</v>
       </c>
-      <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="G153" t="s">
+        <v>617</v>
+      </c>
+      <c r="H153" t="s">
+        <v>568</v>
+      </c>
+      <c r="I153" t="s">
         <v>625</v>
-      </c>
-      <c r="E153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>626</v>
-      </c>
-      <c r="H153" t="s">
-        <v>627</v>
-      </c>
-      <c r="I153" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>629</v>
-      </c>
-      <c r="B154" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D154" t="s">
-        <v>631</v>
-      </c>
-      <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154">
-        <v>2017</v>
+        <v>627</v>
+      </c>
+      <c r="G154" t="s">
+        <v>617</v>
       </c>
       <c r="H154" t="s">
-        <v>386</v>
+        <v>258</v>
+      </c>
+      <c r="J154" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
+        <v>629</v>
+      </c>
+      <c r="B155" t="s">
+        <v>630</v>
+      </c>
+      <c r="D155" t="s">
+        <v>631</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>617</v>
+      </c>
+      <c r="H155" t="s">
         <v>632</v>
       </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
         <v>633</v>
       </c>
-      <c r="D155" t="s">
+      <c r="B156" t="s">
         <v>634</v>
       </c>
-      <c r="E155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="D156" t="s">
         <v>635</v>
       </c>
-      <c r="H155" t="s">
+      <c r="G156" t="s">
+        <v>617</v>
+      </c>
+      <c r="H156" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>636</v>
+      </c>
+      <c r="B157" t="s">
+        <v>637</v>
+      </c>
+      <c r="D157" t="s">
+        <v>638</v>
+      </c>
+      <c r="G157" t="s">
+        <v>639</v>
+      </c>
+      <c r="H157" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>640</v>
+      </c>
+      <c r="B158" t="s">
+        <v>641</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" t="s">
+        <v>642</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>643</v>
+      </c>
+      <c r="H158" t="s">
+        <v>644</v>
+      </c>
+      <c r="I158" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>646</v>
+      </c>
+      <c r="B159" t="s">
+        <v>647</v>
+      </c>
+      <c r="D159" t="s">
+        <v>648</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159">
+        <v>2017</v>
+      </c>
+      <c r="H159" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>649</v>
+      </c>
+      <c r="B160" t="s">
+        <v>650</v>
+      </c>
+      <c r="D160" t="s">
+        <v>651</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>652</v>
+      </c>
+      <c r="H160" t="s">
         <v>44</v>
       </c>
-      <c r="I155" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="B156" t="s">
-        <v>637</v>
-      </c>
-      <c r="H156" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="B157" t="s">
-        <v>638</v>
-      </c>
-      <c r="H157" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="B158" t="s">
-        <v>639</v>
-      </c>
-      <c r="H158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="B159" t="s">
-        <v>640</v>
-      </c>
-      <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="H159" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="B160" t="s">
-        <v>641</v>
-      </c>
-      <c r="E160" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="H160" t="s">
-        <v>325</v>
+      <c r="I160" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H161" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="H162" t="s">
-        <v>644</v>
+        <v>414</v>
       </c>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" t="s">
-        <v>645</v>
-      </c>
       <c r="B163" t="s">
-        <v>646</v>
-      </c>
-      <c r="C163" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" t="s">
-        <v>647</v>
-      </c>
-      <c r="E163" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" t="s">
-        <v>14</v>
+        <v>656</v>
       </c>
       <c r="H163" t="s">
-        <v>321</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" t="s">
-        <v>648</v>
-      </c>
       <c r="B164" t="s">
-        <v>649</v>
-      </c>
-      <c r="D164" t="s">
-        <v>650</v>
+        <v>657</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>551</v>
-      </c>
-      <c r="I164" t="s">
-        <v>95</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>651</v>
+        <v>658</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>551</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>652</v>
-      </c>
-      <c r="F166" t="s">
-        <v>14</v>
+        <v>659</v>
       </c>
       <c r="H166" t="s">
-        <v>300</v>
+        <v>372</v>
       </c>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" t="s">
-        <v>653</v>
-      </c>
       <c r="B167" t="s">
-        <v>654</v>
-      </c>
-      <c r="C167" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" t="s">
-        <v>655</v>
-      </c>
-      <c r="E167" t="s">
-        <v>14</v>
-      </c>
-      <c r="F167" t="s">
-        <v>14</v>
+        <v>660</v>
       </c>
       <c r="H167" t="s">
-        <v>283</v>
+        <v>661</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B168" t="s">
-        <v>657</v>
+        <v>663</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
@@ -5811,325 +5888,415 @@
         <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>659</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B169" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="D169" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="H169" t="s">
-        <v>57</v>
+        <v>568</v>
+      </c>
+      <c r="I169" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>278</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>664</v>
+        <v>669</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
     </row>
     <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>670</v>
+      </c>
       <c r="B172" t="s">
-        <v>665</v>
+        <v>671</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>672</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>673</v>
+      </c>
       <c r="B173" t="s">
-        <v>666</v>
+        <v>674</v>
+      </c>
+      <c r="D173" t="s">
+        <v>675</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>677</v>
+      </c>
       <c r="B174" t="s">
-        <v>668</v>
+        <v>678</v>
+      </c>
+      <c r="D174" t="s">
+        <v>679</v>
       </c>
       <c r="H174" t="s">
-        <v>615</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>669</v>
+        <v>680</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="H176" t="s">
-        <v>513</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="H177" t="s">
-        <v>513</v>
+        <v>248</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="H178" t="s">
-        <v>513</v>
+        <v>684</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="H179" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="H180" t="s">
-        <v>676</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="H181" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="H182" t="s">
-        <v>205</v>
+        <v>530</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="H183" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="H184" t="s">
-        <v>40</v>
+        <v>691</v>
       </c>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" t="s">
-        <v>681</v>
-      </c>
       <c r="B185" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="H185" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="H186" t="s">
-        <v>683</v>
-      </c>
-      <c r="I186" t="s">
-        <v>685</v>
+        <v>563</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="H187" t="s">
-        <v>687</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="H188" t="s">
-        <v>89</v>
+        <v>582</v>
       </c>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" t="s">
-        <v>689</v>
-      </c>
       <c r="B189" t="s">
-        <v>690</v>
-      </c>
-      <c r="D189" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="H189" t="s">
-        <v>89</v>
-      </c>
-      <c r="I189" t="s">
-        <v>692</v>
+        <v>40</v>
       </c>
     </row>
     <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>698</v>
+      </c>
       <c r="B190" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="H190" t="s">
-        <v>89</v>
+        <v>700</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="H191" t="s">
-        <v>114</v>
+        <v>700</v>
+      </c>
+      <c r="I191" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" t="s">
-        <v>695</v>
-      </c>
       <c r="B192" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="H192" t="s">
-        <v>77</v>
+        <v>704</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="H193" t="s">
-        <v>698</v>
+        <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="B194" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D194" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="H194" t="s">
-        <v>44</v>
+        <v>99</v>
+      </c>
+      <c r="I194" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>702</v>
-      </c>
-      <c r="E195" t="s">
-        <v>14</v>
+        <v>710</v>
       </c>
       <c r="H195" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>703</v>
-      </c>
-      <c r="E196" t="s">
-        <v>14</v>
-      </c>
-      <c r="F196" t="s">
-        <v>14</v>
+        <v>711</v>
       </c>
       <c r="H196" t="s">
-        <v>574</v>
-      </c>
-      <c r="I196" t="s">
-        <v>704</v>
+        <v>124</v>
       </c>
     </row>
     <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>712</v>
+      </c>
       <c r="B197" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="H197" t="s">
-        <v>706</v>
+        <v>87</v>
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" t="s">
-        <v>707</v>
-      </c>
       <c r="B198" t="s">
-        <v>708</v>
-      </c>
-      <c r="D198" t="s">
-        <v>709</v>
-      </c>
-      <c r="E198" t="s">
-        <v>14</v>
+        <v>714</v>
       </c>
       <c r="H198" t="s">
-        <v>472</v>
+        <v>715</v>
       </c>
     </row>
     <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>716</v>
+      </c>
       <c r="B199" t="s">
-        <v>710</v>
+        <v>717</v>
+      </c>
+      <c r="D199" t="s">
+        <v>718</v>
       </c>
       <c r="H199" t="s">
-        <v>457</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>711</v>
+        <v>719</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>439</v>
+        <v>156</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="H201" t="s">
-        <v>439</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="B202" t="s">
+        <v>721</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>591</v>
+      </c>
+      <c r="I202" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="B203" t="s">
+        <v>723</v>
+      </c>
+      <c r="H203" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>725</v>
+      </c>
+      <c r="B204" t="s">
+        <v>726</v>
+      </c>
+      <c r="D204" t="s">
+        <v>727</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="H204" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="B205" t="s">
+        <v>728</v>
+      </c>
+      <c r="H205" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="B206" t="s">
+        <v>729</v>
+      </c>
+      <c r="H206" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="B207" t="s">
+        <v>730</v>
+      </c>
+      <c r="H207" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -6194,47 +6361,47 @@
     <hyperlink ref="B59" r:id="rId58"/>
     <hyperlink ref="B60" r:id="rId59"/>
     <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62"/>
-    <hyperlink ref="B65" r:id="rId63"/>
-    <hyperlink ref="B66" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
     <hyperlink ref="B68" r:id="rId66"/>
-    <hyperlink ref="B70" r:id="rId67"/>
-    <hyperlink ref="B71" r:id="rId68"/>
-    <hyperlink ref="B72" r:id="rId69"/>
-    <hyperlink ref="B73" r:id="rId70"/>
-    <hyperlink ref="B74" r:id="rId71"/>
+    <hyperlink ref="B69" r:id="rId67"/>
+    <hyperlink ref="B70" r:id="rId68"/>
+    <hyperlink ref="B71" r:id="rId69"/>
+    <hyperlink ref="B72" r:id="rId70"/>
+    <hyperlink ref="B73" r:id="rId71"/>
     <hyperlink ref="B75" r:id="rId72"/>
     <hyperlink ref="B76" r:id="rId73"/>
-    <hyperlink ref="B80" r:id="rId74"/>
-    <hyperlink ref="B82" r:id="rId75"/>
-    <hyperlink ref="B83" r:id="rId76"/>
-    <hyperlink ref="B84" r:id="rId77"/>
-    <hyperlink ref="B85" r:id="rId78"/>
-    <hyperlink ref="B86" r:id="rId79"/>
+    <hyperlink ref="B77" r:id="rId74"/>
+    <hyperlink ref="B78" r:id="rId75"/>
+    <hyperlink ref="B79" r:id="rId76"/>
+    <hyperlink ref="B80" r:id="rId77"/>
+    <hyperlink ref="B81" r:id="rId78"/>
+    <hyperlink ref="B85" r:id="rId79"/>
     <hyperlink ref="B87" r:id="rId80"/>
     <hyperlink ref="B88" r:id="rId81"/>
-    <hyperlink ref="B90" r:id="rId82"/>
-    <hyperlink ref="B91" r:id="rId83"/>
-    <hyperlink ref="B92" r:id="rId84"/>
-    <hyperlink ref="B93" r:id="rId85"/>
-    <hyperlink ref="B94" r:id="rId86"/>
+    <hyperlink ref="B89" r:id="rId82"/>
+    <hyperlink ref="B90" r:id="rId83"/>
+    <hyperlink ref="B91" r:id="rId84"/>
+    <hyperlink ref="B92" r:id="rId85"/>
+    <hyperlink ref="B93" r:id="rId86"/>
     <hyperlink ref="B95" r:id="rId87"/>
-    <hyperlink ref="B97" r:id="rId88"/>
-    <hyperlink ref="B98" r:id="rId89"/>
-    <hyperlink ref="B99" r:id="rId90"/>
-    <hyperlink ref="B100" r:id="rId91"/>
-    <hyperlink ref="B101" r:id="rId92"/>
+    <hyperlink ref="B96" r:id="rId88"/>
+    <hyperlink ref="B97" r:id="rId89"/>
+    <hyperlink ref="B98" r:id="rId90"/>
+    <hyperlink ref="B99" r:id="rId91"/>
+    <hyperlink ref="B100" r:id="rId92"/>
     <hyperlink ref="B102" r:id="rId93"/>
     <hyperlink ref="B103" r:id="rId94"/>
-    <hyperlink ref="B105" r:id="rId95"/>
-    <hyperlink ref="B106" r:id="rId96"/>
-    <hyperlink ref="B108" r:id="rId97"/>
-    <hyperlink ref="B109" r:id="rId98"/>
-    <hyperlink ref="B110" r:id="rId99"/>
-    <hyperlink ref="B111" r:id="rId100"/>
-    <hyperlink ref="B112" r:id="rId101"/>
+    <hyperlink ref="B104" r:id="rId95"/>
+    <hyperlink ref="B105" r:id="rId96"/>
+    <hyperlink ref="B106" r:id="rId97"/>
+    <hyperlink ref="B107" r:id="rId98"/>
+    <hyperlink ref="B108" r:id="rId99"/>
+    <hyperlink ref="B110" r:id="rId100"/>
+    <hyperlink ref="B111" r:id="rId101"/>
     <hyperlink ref="B113" r:id="rId102"/>
     <hyperlink ref="B114" r:id="rId103"/>
     <hyperlink ref="B115" r:id="rId104"/>
@@ -6257,11 +6424,11 @@
     <hyperlink ref="B132" r:id="rId121"/>
     <hyperlink ref="B133" r:id="rId122"/>
     <hyperlink ref="B134" r:id="rId123"/>
-    <hyperlink ref="B136" r:id="rId124"/>
-    <hyperlink ref="B137" r:id="rId125"/>
-    <hyperlink ref="B138" r:id="rId126"/>
-    <hyperlink ref="B139" r:id="rId127"/>
-    <hyperlink ref="B140" r:id="rId128"/>
+    <hyperlink ref="B135" r:id="rId124"/>
+    <hyperlink ref="B136" r:id="rId125"/>
+    <hyperlink ref="B137" r:id="rId126"/>
+    <hyperlink ref="B138" r:id="rId127"/>
+    <hyperlink ref="B139" r:id="rId128"/>
     <hyperlink ref="B141" r:id="rId129"/>
     <hyperlink ref="B142" r:id="rId130"/>
     <hyperlink ref="B143" r:id="rId131"/>
@@ -6270,11 +6437,11 @@
     <hyperlink ref="B146" r:id="rId134"/>
     <hyperlink ref="B147" r:id="rId135"/>
     <hyperlink ref="B148" r:id="rId136"/>
-    <hyperlink ref="B150" r:id="rId137"/>
-    <hyperlink ref="B151" r:id="rId138"/>
-    <hyperlink ref="B152" r:id="rId139"/>
-    <hyperlink ref="B153" r:id="rId140"/>
-    <hyperlink ref="B154" r:id="rId141"/>
+    <hyperlink ref="B149" r:id="rId137"/>
+    <hyperlink ref="B150" r:id="rId138"/>
+    <hyperlink ref="B151" r:id="rId139"/>
+    <hyperlink ref="B152" r:id="rId140"/>
+    <hyperlink ref="B153" r:id="rId141"/>
     <hyperlink ref="B155" r:id="rId142"/>
     <hyperlink ref="B156" r:id="rId143"/>
     <hyperlink ref="B157" r:id="rId144"/>
@@ -6322,6 +6489,12 @@
     <hyperlink ref="B199" r:id="rId186"/>
     <hyperlink ref="B200" r:id="rId187"/>
     <hyperlink ref="B201" r:id="rId188"/>
+    <hyperlink ref="B202" r:id="rId189"/>
+    <hyperlink ref="B203" r:id="rId190"/>
+    <hyperlink ref="B204" r:id="rId191"/>
+    <hyperlink ref="B205" r:id="rId192"/>
+    <hyperlink ref="B206" r:id="rId193"/>
+    <hyperlink ref="B207" r:id="rId194"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
